--- a/scripts/templates/ks2/template1.xlsx
+++ b/scripts/templates/ks2/template1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\report-generator\scripts\templates\ks2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C025019-EBA4-4980-AA13-5E19A43CF6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E950BC32-5A35-4D37-8EA7-ED6C4CE91596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="1536" windowWidth="18204" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КС-2" sheetId="1" r:id="rId1"/>
@@ -27,71 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Пользователь</author>
-  </authors>
-  <commentList>
-    <comment ref="BJ20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Пользователь:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-ввносится в кажды документ руками
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Пользователь:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-данные из сметы</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>Унифицированная форма № КС-2
 Утверждена постановлением Госкомстата России от 11.11.99 № 100</t>
@@ -148,9 +85,6 @@
     <t>Вид деятельности по ОКДП</t>
   </si>
   <si>
-    <t>Договор подряда (контракт)</t>
-  </si>
-  <si>
     <t>номер</t>
   </si>
   <si>
@@ -160,9 +94,6 @@
     <t>дата</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>Номер документа</t>
   </si>
   <si>
@@ -182,12 +113,6 @@
   </si>
   <si>
     <t>АКТ</t>
-  </si>
-  <si>
-    <t>16.12.2019</t>
-  </si>
-  <si>
-    <t>17.10.2019</t>
   </si>
   <si>
     <t>О ПРИЕМКЕ ВЫПОЛНЕННЫХ РАБОТ</t>
@@ -248,12 +173,6 @@
     <t>Монтаж потолочного громкоговорителя/оповещателя</t>
   </si>
   <si>
-    <t>компл</t>
-  </si>
-  <si>
-    <t>Крепежные конструкции и матер./расходный материал</t>
-  </si>
-  <si>
     <t>Накладные и транспортные расходы 4%</t>
   </si>
   <si>
@@ -341,9 +260,6 @@
     <t>${section0_sumPrice}</t>
   </si>
   <si>
-    <t>${relatedExpanses}</t>
-  </si>
-  <si>
     <t>${sumPrice}</t>
   </si>
   <si>
@@ -357,6 +273,12 @@
   </si>
   <si>
     <t>Накладные и транспортные расходы 8%</t>
+  </si>
+  <si>
+    <t>${itemsQuantity}</t>
+  </si>
+  <si>
+    <t>${section0_relatedExpanses}</t>
   </si>
 </sst>
 </file>
@@ -373,23 +295,31 @@
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -407,17 +337,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -743,70 +671,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -817,58 +784,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -904,10 +832,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -967,79 +895,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1366,11 +1300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ZZ45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ZZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="EW16" sqref="EW16:FI16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="DN35" sqref="DN35:EC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1388,182 +1322,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="DB1" s="102" t="s">
+      <c r="DB1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="DC1" s="102"/>
-      <c r="DD1" s="102"/>
-      <c r="DE1" s="102"/>
-      <c r="DF1" s="102"/>
-      <c r="DG1" s="102"/>
-      <c r="DH1" s="102"/>
-      <c r="DI1" s="102"/>
-      <c r="DJ1" s="102"/>
-      <c r="DK1" s="102"/>
-      <c r="DL1" s="102"/>
-      <c r="DM1" s="102"/>
-      <c r="DN1" s="102"/>
-      <c r="DO1" s="102"/>
-      <c r="DP1" s="102"/>
-      <c r="DQ1" s="102"/>
-      <c r="DR1" s="102"/>
-      <c r="DS1" s="102"/>
-      <c r="DT1" s="102"/>
-      <c r="DU1" s="102"/>
-      <c r="DV1" s="102"/>
-      <c r="DW1" s="102"/>
-      <c r="DX1" s="102"/>
-      <c r="DY1" s="102"/>
-      <c r="DZ1" s="102"/>
-      <c r="EA1" s="102"/>
-      <c r="EB1" s="102"/>
-      <c r="EC1" s="102"/>
-      <c r="ED1" s="102"/>
-      <c r="EE1" s="102"/>
-      <c r="EF1" s="102"/>
-      <c r="EG1" s="102"/>
-      <c r="EH1" s="102"/>
-      <c r="EI1" s="102"/>
-      <c r="EJ1" s="102"/>
-      <c r="EK1" s="102"/>
-      <c r="EL1" s="102"/>
-      <c r="EM1" s="102"/>
-      <c r="EN1" s="102"/>
-      <c r="EO1" s="102"/>
-      <c r="EP1" s="102"/>
-      <c r="EQ1" s="102"/>
-      <c r="ER1" s="102"/>
-      <c r="ES1" s="102"/>
-      <c r="ET1" s="102"/>
-      <c r="EU1" s="102"/>
-      <c r="EV1" s="102"/>
-      <c r="EW1" s="102"/>
-      <c r="EX1" s="102"/>
-      <c r="EY1" s="102"/>
-      <c r="EZ1" s="102"/>
-      <c r="FA1" s="102"/>
-      <c r="FB1" s="102"/>
-      <c r="FC1" s="102"/>
-      <c r="FD1" s="102"/>
-      <c r="FE1" s="102"/>
-      <c r="FF1" s="102"/>
-      <c r="FG1" s="102"/>
-      <c r="FH1" s="102"/>
-      <c r="FI1" s="102"/>
+      <c r="DC1" s="104"/>
+      <c r="DD1" s="104"/>
+      <c r="DE1" s="104"/>
+      <c r="DF1" s="104"/>
+      <c r="DG1" s="104"/>
+      <c r="DH1" s="104"/>
+      <c r="DI1" s="104"/>
+      <c r="DJ1" s="104"/>
+      <c r="DK1" s="104"/>
+      <c r="DL1" s="104"/>
+      <c r="DM1" s="104"/>
+      <c r="DN1" s="104"/>
+      <c r="DO1" s="104"/>
+      <c r="DP1" s="104"/>
+      <c r="DQ1" s="104"/>
+      <c r="DR1" s="104"/>
+      <c r="DS1" s="104"/>
+      <c r="DT1" s="104"/>
+      <c r="DU1" s="104"/>
+      <c r="DV1" s="104"/>
+      <c r="DW1" s="104"/>
+      <c r="DX1" s="104"/>
+      <c r="DY1" s="104"/>
+      <c r="DZ1" s="104"/>
+      <c r="EA1" s="104"/>
+      <c r="EB1" s="104"/>
+      <c r="EC1" s="104"/>
+      <c r="ED1" s="104"/>
+      <c r="EE1" s="104"/>
+      <c r="EF1" s="104"/>
+      <c r="EG1" s="104"/>
+      <c r="EH1" s="104"/>
+      <c r="EI1" s="104"/>
+      <c r="EJ1" s="104"/>
+      <c r="EK1" s="104"/>
+      <c r="EL1" s="104"/>
+      <c r="EM1" s="104"/>
+      <c r="EN1" s="104"/>
+      <c r="EO1" s="104"/>
+      <c r="EP1" s="104"/>
+      <c r="EQ1" s="104"/>
+      <c r="ER1" s="104"/>
+      <c r="ES1" s="104"/>
+      <c r="ET1" s="104"/>
+      <c r="EU1" s="104"/>
+      <c r="EV1" s="104"/>
+      <c r="EW1" s="104"/>
+      <c r="EX1" s="104"/>
+      <c r="EY1" s="104"/>
+      <c r="EZ1" s="104"/>
+      <c r="FA1" s="104"/>
+      <c r="FB1" s="104"/>
+      <c r="FC1" s="104"/>
+      <c r="FD1" s="104"/>
+      <c r="FE1" s="104"/>
+      <c r="FF1" s="104"/>
+      <c r="FG1" s="104"/>
+      <c r="FH1" s="104"/>
+      <c r="FI1" s="104"/>
     </row>
     <row r="2" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="DB2" s="102"/>
-      <c r="DC2" s="102"/>
-      <c r="DD2" s="102"/>
-      <c r="DE2" s="102"/>
-      <c r="DF2" s="102"/>
-      <c r="DG2" s="102"/>
-      <c r="DH2" s="102"/>
-      <c r="DI2" s="102"/>
-      <c r="DJ2" s="102"/>
-      <c r="DK2" s="102"/>
-      <c r="DL2" s="102"/>
-      <c r="DM2" s="102"/>
-      <c r="DN2" s="102"/>
-      <c r="DO2" s="102"/>
-      <c r="DP2" s="102"/>
-      <c r="DQ2" s="102"/>
-      <c r="DR2" s="102"/>
-      <c r="DS2" s="102"/>
-      <c r="DT2" s="102"/>
-      <c r="DU2" s="102"/>
-      <c r="DV2" s="102"/>
-      <c r="DW2" s="102"/>
-      <c r="DX2" s="102"/>
-      <c r="DY2" s="102"/>
-      <c r="DZ2" s="102"/>
-      <c r="EA2" s="102"/>
-      <c r="EB2" s="102"/>
-      <c r="EC2" s="102"/>
-      <c r="ED2" s="102"/>
-      <c r="EE2" s="102"/>
-      <c r="EF2" s="102"/>
-      <c r="EG2" s="102"/>
-      <c r="EH2" s="102"/>
-      <c r="EI2" s="102"/>
-      <c r="EJ2" s="102"/>
-      <c r="EK2" s="102"/>
-      <c r="EL2" s="102"/>
-      <c r="EM2" s="102"/>
-      <c r="EN2" s="102"/>
-      <c r="EO2" s="102"/>
-      <c r="EP2" s="102"/>
-      <c r="EQ2" s="102"/>
-      <c r="ER2" s="102"/>
-      <c r="ES2" s="102"/>
-      <c r="ET2" s="102"/>
-      <c r="EU2" s="102"/>
-      <c r="EV2" s="102"/>
-      <c r="EW2" s="102"/>
-      <c r="EX2" s="102"/>
-      <c r="EY2" s="102"/>
-      <c r="EZ2" s="102"/>
-      <c r="FA2" s="102"/>
-      <c r="FB2" s="102"/>
-      <c r="FC2" s="102"/>
-      <c r="FD2" s="102"/>
-      <c r="FE2" s="102"/>
-      <c r="FF2" s="102"/>
-      <c r="FG2" s="102"/>
-      <c r="FH2" s="102"/>
-      <c r="FI2" s="102"/>
+      <c r="DB2" s="104"/>
+      <c r="DC2" s="104"/>
+      <c r="DD2" s="104"/>
+      <c r="DE2" s="104"/>
+      <c r="DF2" s="104"/>
+      <c r="DG2" s="104"/>
+      <c r="DH2" s="104"/>
+      <c r="DI2" s="104"/>
+      <c r="DJ2" s="104"/>
+      <c r="DK2" s="104"/>
+      <c r="DL2" s="104"/>
+      <c r="DM2" s="104"/>
+      <c r="DN2" s="104"/>
+      <c r="DO2" s="104"/>
+      <c r="DP2" s="104"/>
+      <c r="DQ2" s="104"/>
+      <c r="DR2" s="104"/>
+      <c r="DS2" s="104"/>
+      <c r="DT2" s="104"/>
+      <c r="DU2" s="104"/>
+      <c r="DV2" s="104"/>
+      <c r="DW2" s="104"/>
+      <c r="DX2" s="104"/>
+      <c r="DY2" s="104"/>
+      <c r="DZ2" s="104"/>
+      <c r="EA2" s="104"/>
+      <c r="EB2" s="104"/>
+      <c r="EC2" s="104"/>
+      <c r="ED2" s="104"/>
+      <c r="EE2" s="104"/>
+      <c r="EF2" s="104"/>
+      <c r="EG2" s="104"/>
+      <c r="EH2" s="104"/>
+      <c r="EI2" s="104"/>
+      <c r="EJ2" s="104"/>
+      <c r="EK2" s="104"/>
+      <c r="EL2" s="104"/>
+      <c r="EM2" s="104"/>
+      <c r="EN2" s="104"/>
+      <c r="EO2" s="104"/>
+      <c r="EP2" s="104"/>
+      <c r="EQ2" s="104"/>
+      <c r="ER2" s="104"/>
+      <c r="ES2" s="104"/>
+      <c r="ET2" s="104"/>
+      <c r="EU2" s="104"/>
+      <c r="EV2" s="104"/>
+      <c r="EW2" s="104"/>
+      <c r="EX2" s="104"/>
+      <c r="EY2" s="104"/>
+      <c r="EZ2" s="104"/>
+      <c r="FA2" s="104"/>
+      <c r="FB2" s="104"/>
+      <c r="FC2" s="104"/>
+      <c r="FD2" s="104"/>
+      <c r="FE2" s="104"/>
+      <c r="FF2" s="104"/>
+      <c r="FG2" s="104"/>
+      <c r="FH2" s="104"/>
+      <c r="FI2" s="104"/>
     </row>
     <row r="3" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="EW3" s="103" t="s">
+      <c r="EW3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="EX3" s="104"/>
-      <c r="EY3" s="104"/>
-      <c r="EZ3" s="104"/>
-      <c r="FA3" s="104"/>
-      <c r="FB3" s="104"/>
-      <c r="FC3" s="104"/>
-      <c r="FD3" s="104"/>
-      <c r="FE3" s="104"/>
-      <c r="FF3" s="104"/>
-      <c r="FG3" s="104"/>
-      <c r="FH3" s="104"/>
-      <c r="FI3" s="105"/>
+      <c r="EX3" s="106"/>
+      <c r="EY3" s="106"/>
+      <c r="EZ3" s="106"/>
+      <c r="FA3" s="106"/>
+      <c r="FB3" s="106"/>
+      <c r="FC3" s="106"/>
+      <c r="FD3" s="106"/>
+      <c r="FE3" s="106"/>
+      <c r="FF3" s="106"/>
+      <c r="FG3" s="106"/>
+      <c r="FH3" s="106"/>
+      <c r="FI3" s="107"/>
     </row>
     <row r="4" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="EG4" s="20" t="s">
+      <c r="EG4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="EH4" s="20"/>
-      <c r="EI4" s="20"/>
-      <c r="EJ4" s="20"/>
-      <c r="EK4" s="20"/>
-      <c r="EL4" s="20"/>
-      <c r="EM4" s="20"/>
-      <c r="EN4" s="20"/>
-      <c r="EO4" s="20"/>
-      <c r="EP4" s="20"/>
-      <c r="EQ4" s="20"/>
-      <c r="ER4" s="20"/>
-      <c r="ES4" s="20"/>
-      <c r="ET4" s="20"/>
-      <c r="EU4" s="20"/>
-      <c r="EV4" s="20"/>
-      <c r="EW4" s="106" t="s">
+      <c r="EH4" s="33"/>
+      <c r="EI4" s="33"/>
+      <c r="EJ4" s="33"/>
+      <c r="EK4" s="33"/>
+      <c r="EL4" s="33"/>
+      <c r="EM4" s="33"/>
+      <c r="EN4" s="33"/>
+      <c r="EO4" s="33"/>
+      <c r="EP4" s="33"/>
+      <c r="EQ4" s="33"/>
+      <c r="ER4" s="33"/>
+      <c r="ES4" s="33"/>
+      <c r="ET4" s="33"/>
+      <c r="EU4" s="33"/>
+      <c r="EV4" s="33"/>
+      <c r="EW4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="EX4" s="25"/>
-      <c r="EY4" s="25"/>
-      <c r="EZ4" s="25"/>
-      <c r="FA4" s="25"/>
-      <c r="FB4" s="25"/>
-      <c r="FC4" s="25"/>
-      <c r="FD4" s="25"/>
-      <c r="FE4" s="25"/>
-      <c r="FF4" s="25"/>
-      <c r="FG4" s="25"/>
-      <c r="FH4" s="25"/>
-      <c r="FI4" s="107"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38"/>
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="109"/>
     </row>
     <row r="5" spans="1:682" x14ac:dyDescent="0.2">
       <c r="A5" s="85" t="s">
@@ -1722,7 +1656,7 @@
       <c r="ET5" s="97"/>
       <c r="EU5" s="97"/>
       <c r="EV5" s="97"/>
-      <c r="EW5" s="108"/>
+      <c r="EW5" s="110"/>
       <c r="EX5" s="92"/>
       <c r="EY5" s="92"/>
       <c r="EZ5" s="92"/>
@@ -1882,9 +1816,7 @@
       <c r="EJ6" s="18"/>
       <c r="EK6" s="18"/>
       <c r="EL6" s="18"/>
-      <c r="EW6" s="98">
-        <v>78512818</v>
-      </c>
+      <c r="EW6" s="98"/>
       <c r="EX6" s="99"/>
       <c r="EY6" s="99"/>
       <c r="EZ6" s="99"/>
@@ -1926,7 +1858,7 @@
       <c r="W7" s="85"/>
       <c r="X7" s="85"/>
       <c r="Y7" s="86" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="87"/>
       <c r="AA7" s="87"/>
@@ -2058,18 +1990,18 @@
       <c r="EU7" s="97"/>
       <c r="EV7" s="97"/>
       <c r="EW7" s="101"/>
-      <c r="EX7" s="78"/>
-      <c r="EY7" s="78"/>
-      <c r="EZ7" s="78"/>
-      <c r="FA7" s="78"/>
-      <c r="FB7" s="78"/>
-      <c r="FC7" s="78"/>
-      <c r="FD7" s="78"/>
-      <c r="FE7" s="78"/>
-      <c r="FF7" s="78"/>
-      <c r="FG7" s="78"/>
-      <c r="FH7" s="78"/>
-      <c r="FI7" s="79"/>
+      <c r="EX7" s="102"/>
+      <c r="EY7" s="102"/>
+      <c r="EZ7" s="102"/>
+      <c r="FA7" s="102"/>
+      <c r="FB7" s="102"/>
+      <c r="FC7" s="102"/>
+      <c r="FD7" s="102"/>
+      <c r="FE7" s="102"/>
+      <c r="FF7" s="102"/>
+      <c r="FG7" s="102"/>
+      <c r="FH7" s="102"/>
+      <c r="FI7" s="103"/>
       <c r="ZB7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2779,7 @@
       <c r="I13" s="85"/>
       <c r="J13" s="85"/>
       <c r="K13" s="86" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L13" s="87"/>
       <c r="M13" s="87"/>
@@ -3084,38 +3016,38 @@
       <c r="BT14" s="94"/>
       <c r="BU14" s="94"/>
       <c r="BV14" s="94"/>
-      <c r="DS14" s="20" t="s">
+      <c r="DS14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="DT14" s="20"/>
-      <c r="DU14" s="20"/>
-      <c r="DV14" s="20"/>
-      <c r="DW14" s="20"/>
-      <c r="DX14" s="20"/>
-      <c r="DY14" s="20"/>
-      <c r="DZ14" s="20"/>
-      <c r="EA14" s="20"/>
-      <c r="EB14" s="20"/>
-      <c r="EC14" s="20"/>
-      <c r="ED14" s="20"/>
-      <c r="EE14" s="20"/>
-      <c r="EF14" s="20"/>
-      <c r="EG14" s="20"/>
-      <c r="EH14" s="20"/>
-      <c r="EI14" s="20"/>
-      <c r="EJ14" s="20"/>
-      <c r="EK14" s="20"/>
-      <c r="EL14" s="20"/>
-      <c r="EM14" s="20"/>
-      <c r="EN14" s="20"/>
-      <c r="EO14" s="20"/>
-      <c r="EP14" s="20"/>
-      <c r="EQ14" s="20"/>
-      <c r="ER14" s="20"/>
-      <c r="ES14" s="20"/>
-      <c r="ET14" s="20"/>
-      <c r="EU14" s="20"/>
-      <c r="EV14" s="20"/>
+      <c r="DT14" s="33"/>
+      <c r="DU14" s="33"/>
+      <c r="DV14" s="33"/>
+      <c r="DW14" s="33"/>
+      <c r="DX14" s="33"/>
+      <c r="DY14" s="33"/>
+      <c r="DZ14" s="33"/>
+      <c r="EA14" s="33"/>
+      <c r="EB14" s="33"/>
+      <c r="EC14" s="33"/>
+      <c r="ED14" s="33"/>
+      <c r="EE14" s="33"/>
+      <c r="EF14" s="33"/>
+      <c r="EG14" s="33"/>
+      <c r="EH14" s="33"/>
+      <c r="EI14" s="33"/>
+      <c r="EJ14" s="33"/>
+      <c r="EK14" s="33"/>
+      <c r="EL14" s="33"/>
+      <c r="EM14" s="33"/>
+      <c r="EN14" s="33"/>
+      <c r="EO14" s="33"/>
+      <c r="EP14" s="33"/>
+      <c r="EQ14" s="33"/>
+      <c r="ER14" s="33"/>
+      <c r="ES14" s="33"/>
+      <c r="ET14" s="33"/>
+      <c r="EU14" s="33"/>
+      <c r="EV14" s="33"/>
       <c r="EW14" s="88"/>
       <c r="EX14" s="89"/>
       <c r="EY14" s="89"/>
@@ -3131,36 +3063,36 @@
       <c r="FI14" s="90"/>
     </row>
     <row r="15" spans="1:682" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="DS15" s="20"/>
-      <c r="DT15" s="20"/>
-      <c r="DU15" s="20"/>
-      <c r="DV15" s="20"/>
-      <c r="DW15" s="20"/>
-      <c r="DX15" s="20"/>
-      <c r="DY15" s="20"/>
-      <c r="DZ15" s="20"/>
-      <c r="EA15" s="20"/>
-      <c r="EB15" s="20"/>
-      <c r="EC15" s="20"/>
-      <c r="ED15" s="20"/>
-      <c r="EE15" s="20"/>
-      <c r="EF15" s="20"/>
-      <c r="EG15" s="20"/>
-      <c r="EH15" s="20"/>
-      <c r="EI15" s="20"/>
-      <c r="EJ15" s="20"/>
-      <c r="EK15" s="20"/>
-      <c r="EL15" s="20"/>
-      <c r="EM15" s="20"/>
-      <c r="EN15" s="20"/>
-      <c r="EO15" s="20"/>
-      <c r="EP15" s="20"/>
-      <c r="EQ15" s="20"/>
-      <c r="ER15" s="20"/>
-      <c r="ES15" s="20"/>
-      <c r="ET15" s="20"/>
-      <c r="EU15" s="20"/>
-      <c r="EV15" s="20"/>
+      <c r="DS15" s="33"/>
+      <c r="DT15" s="33"/>
+      <c r="DU15" s="33"/>
+      <c r="DV15" s="33"/>
+      <c r="DW15" s="33"/>
+      <c r="DX15" s="33"/>
+      <c r="DY15" s="33"/>
+      <c r="DZ15" s="33"/>
+      <c r="EA15" s="33"/>
+      <c r="EB15" s="33"/>
+      <c r="EC15" s="33"/>
+      <c r="ED15" s="33"/>
+      <c r="EE15" s="33"/>
+      <c r="EF15" s="33"/>
+      <c r="EG15" s="33"/>
+      <c r="EH15" s="33"/>
+      <c r="EI15" s="33"/>
+      <c r="EJ15" s="33"/>
+      <c r="EK15" s="33"/>
+      <c r="EL15" s="33"/>
+      <c r="EM15" s="33"/>
+      <c r="EN15" s="33"/>
+      <c r="EO15" s="33"/>
+      <c r="EP15" s="33"/>
+      <c r="EQ15" s="33"/>
+      <c r="ER15" s="33"/>
+      <c r="ES15" s="33"/>
+      <c r="ET15" s="33"/>
+      <c r="EU15" s="33"/>
+      <c r="EV15" s="33"/>
       <c r="EW15" s="91"/>
       <c r="EX15" s="92"/>
       <c r="EY15" s="92"/>
@@ -3176,9 +3108,7 @@
       <c r="FI15" s="93"/>
     </row>
     <row r="16" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="DH16" s="73" t="s">
-        <v>18</v>
-      </c>
+      <c r="DH16" s="73"/>
       <c r="DI16" s="73"/>
       <c r="DJ16" s="73"/>
       <c r="DK16" s="73"/>
@@ -3210,7 +3140,7 @@
       <c r="EK16" s="73"/>
       <c r="EL16" s="73"/>
       <c r="EM16" s="74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="EN16" s="75"/>
       <c r="EO16" s="75"/>
@@ -3222,7 +3152,7 @@
       <c r="EU16" s="75"/>
       <c r="EV16" s="76"/>
       <c r="EW16" s="77" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="EX16" s="78"/>
       <c r="EY16" s="78"/>
@@ -3237,12 +3167,12 @@
       <c r="FH16" s="78"/>
       <c r="FI16" s="79"/>
       <c r="ZF16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:702" x14ac:dyDescent="0.2">
       <c r="EM17" s="74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="EN17" s="75"/>
       <c r="EO17" s="75"/>
@@ -3253,29 +3183,23 @@
       <c r="ET17" s="75"/>
       <c r="EU17" s="75"/>
       <c r="EV17" s="76"/>
-      <c r="EW17" s="80" t="s">
-        <v>22</v>
-      </c>
+      <c r="EW17" s="80"/>
       <c r="EX17" s="81"/>
       <c r="EY17" s="81"/>
       <c r="EZ17" s="81"/>
-      <c r="FA17" s="82">
-        <v>10</v>
-      </c>
+      <c r="FA17" s="82"/>
       <c r="FB17" s="81"/>
       <c r="FC17" s="81"/>
       <c r="FD17" s="81"/>
       <c r="FE17" s="83"/>
-      <c r="FF17" s="82">
-        <v>19</v>
-      </c>
+      <c r="FF17" s="82"/>
       <c r="FG17" s="81"/>
       <c r="FH17" s="81"/>
       <c r="FI17" s="84"/>
     </row>
     <row r="18" spans="1:702" x14ac:dyDescent="0.2">
       <c r="BJ18" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BK18" s="46"/>
       <c r="BL18" s="46"/>
@@ -3295,7 +3219,7 @@
       <c r="BZ18" s="46"/>
       <c r="CA18" s="47"/>
       <c r="CB18" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="CC18" s="46"/>
       <c r="CD18" s="46"/>
@@ -3316,7 +3240,7 @@
       <c r="CS18" s="46"/>
       <c r="CT18" s="47"/>
       <c r="DA18" s="59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="DB18" s="60"/>
       <c r="DC18" s="60"/>
@@ -3343,22 +3267,22 @@
       <c r="DX18" s="60"/>
       <c r="DY18" s="60"/>
       <c r="DZ18" s="61"/>
-      <c r="EI18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="EJ18" s="20"/>
-      <c r="EK18" s="20"/>
-      <c r="EL18" s="20"/>
-      <c r="EM18" s="20"/>
-      <c r="EN18" s="20"/>
-      <c r="EO18" s="20"/>
-      <c r="EP18" s="20"/>
-      <c r="EQ18" s="20"/>
-      <c r="ER18" s="20"/>
-      <c r="ES18" s="20"/>
-      <c r="ET18" s="20"/>
-      <c r="EU18" s="20"/>
-      <c r="EV18" s="20"/>
+      <c r="EI18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="EJ18" s="33"/>
+      <c r="EK18" s="33"/>
+      <c r="EL18" s="33"/>
+      <c r="EM18" s="33"/>
+      <c r="EN18" s="33"/>
+      <c r="EO18" s="33"/>
+      <c r="EP18" s="33"/>
+      <c r="EQ18" s="33"/>
+      <c r="ER18" s="33"/>
+      <c r="ES18" s="33"/>
+      <c r="ET18" s="33"/>
+      <c r="EU18" s="33"/>
+      <c r="EV18" s="33"/>
       <c r="EW18" s="62"/>
       <c r="EX18" s="63"/>
       <c r="EY18" s="63"/>
@@ -3375,44 +3299,44 @@
     </row>
     <row r="19" spans="1:702" x14ac:dyDescent="0.2">
       <c r="BJ19" s="48"/>
-      <c r="BK19" s="25"/>
-      <c r="BL19" s="25"/>
-      <c r="BM19" s="25"/>
-      <c r="BN19" s="25"/>
-      <c r="BO19" s="25"/>
-      <c r="BP19" s="25"/>
-      <c r="BQ19" s="25"/>
-      <c r="BR19" s="25"/>
-      <c r="BS19" s="25"/>
-      <c r="BT19" s="25"/>
-      <c r="BU19" s="25"/>
-      <c r="BV19" s="25"/>
-      <c r="BW19" s="25"/>
-      <c r="BX19" s="25"/>
-      <c r="BY19" s="25"/>
-      <c r="BZ19" s="25"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="38"/>
+      <c r="BR19" s="38"/>
+      <c r="BS19" s="38"/>
+      <c r="BT19" s="38"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="38"/>
+      <c r="BW19" s="38"/>
+      <c r="BX19" s="38"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="38"/>
       <c r="CA19" s="49"/>
       <c r="CB19" s="48"/>
-      <c r="CC19" s="25"/>
-      <c r="CD19" s="25"/>
-      <c r="CE19" s="25"/>
-      <c r="CF19" s="25"/>
-      <c r="CG19" s="25"/>
-      <c r="CH19" s="25"/>
-      <c r="CI19" s="25"/>
-      <c r="CJ19" s="25"/>
-      <c r="CK19" s="25"/>
-      <c r="CL19" s="25"/>
-      <c r="CM19" s="25"/>
-      <c r="CN19" s="25"/>
-      <c r="CO19" s="25"/>
-      <c r="CP19" s="25"/>
-      <c r="CQ19" s="25"/>
-      <c r="CR19" s="25"/>
-      <c r="CS19" s="25"/>
+      <c r="CC19" s="38"/>
+      <c r="CD19" s="38"/>
+      <c r="CE19" s="38"/>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="38"/>
+      <c r="CH19" s="38"/>
+      <c r="CI19" s="38"/>
+      <c r="CJ19" s="38"/>
+      <c r="CK19" s="38"/>
+      <c r="CL19" s="38"/>
+      <c r="CM19" s="38"/>
+      <c r="CN19" s="38"/>
+      <c r="CO19" s="38"/>
+      <c r="CP19" s="38"/>
+      <c r="CQ19" s="38"/>
+      <c r="CR19" s="38"/>
+      <c r="CS19" s="38"/>
       <c r="CT19" s="49"/>
       <c r="DA19" s="59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="DB19" s="60"/>
       <c r="DC19" s="60"/>
@@ -3427,7 +3351,7 @@
       <c r="DL19" s="60"/>
       <c r="DM19" s="61"/>
       <c r="DN19" s="59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="DO19" s="60"/>
       <c r="DP19" s="60"/>
@@ -3444,16 +3368,14 @@
     </row>
     <row r="20" spans="1:702" ht="13.2" x14ac:dyDescent="0.2">
       <c r="BD20" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
       <c r="BH20" s="65"/>
       <c r="BI20" s="65"/>
-      <c r="BJ20" s="66">
-        <v>1684</v>
-      </c>
+      <c r="BJ20" s="66"/>
       <c r="BK20" s="67"/>
       <c r="BL20" s="67"/>
       <c r="BM20" s="67"/>
@@ -3471,9 +3393,7 @@
       <c r="BY20" s="67"/>
       <c r="BZ20" s="67"/>
       <c r="CA20" s="68"/>
-      <c r="CB20" s="69" t="s">
-        <v>30</v>
-      </c>
+      <c r="CB20" s="69"/>
       <c r="CC20" s="69"/>
       <c r="CD20" s="69"/>
       <c r="CE20" s="69"/>
@@ -3492,9 +3412,7 @@
       <c r="CR20" s="69"/>
       <c r="CS20" s="69"/>
       <c r="CT20" s="70"/>
-      <c r="DA20" s="71" t="s">
-        <v>31</v>
-      </c>
+      <c r="DA20" s="71"/>
       <c r="DB20" s="69"/>
       <c r="DC20" s="69"/>
       <c r="DD20" s="69"/>
@@ -3507,9 +3425,7 @@
       <c r="DK20" s="69"/>
       <c r="DL20" s="69"/>
       <c r="DM20" s="72"/>
-      <c r="DN20" s="69" t="s">
-        <v>30</v>
-      </c>
+      <c r="DN20" s="69"/>
       <c r="DO20" s="69"/>
       <c r="DP20" s="69"/>
       <c r="DQ20" s="69"/>
@@ -3526,7 +3442,7 @@
     <row r="21" spans="1:702" ht="0.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:702" ht="13.2" x14ac:dyDescent="0.2">
       <c r="AB22" s="55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC22" s="55"/>
       <c r="AD22" s="55"/>
@@ -3609,85 +3525,85 @@
     </row>
     <row r="23" spans="1:702" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
-      <c r="BB24" s="20"/>
-      <c r="BC24" s="20"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="20"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="20"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="20"/>
-      <c r="BK24" s="20"/>
-      <c r="BL24" s="20"/>
-      <c r="BM24" s="20"/>
-      <c r="BN24" s="20"/>
-      <c r="BO24" s="20"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="20"/>
-      <c r="BS24" s="20"/>
-      <c r="BT24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
-      <c r="BW24" s="20"/>
+      <c r="A24" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="33"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="33"/>
+      <c r="AT24" s="33"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="33"/>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="33"/>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="33"/>
+      <c r="BI24" s="33"/>
+      <c r="BJ24" s="33"/>
+      <c r="BK24" s="33"/>
+      <c r="BL24" s="33"/>
+      <c r="BM24" s="33"/>
+      <c r="BN24" s="33"/>
+      <c r="BO24" s="33"/>
+      <c r="BP24" s="33"/>
+      <c r="BQ24" s="33"/>
+      <c r="BR24" s="33"/>
+      <c r="BS24" s="33"/>
+      <c r="BT24" s="33"/>
+      <c r="BU24" s="33"/>
+      <c r="BV24" s="33"/>
+      <c r="BW24" s="33"/>
       <c r="BX24" s="56" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BY24" s="57"/>
       <c r="BZ24" s="57"/>
@@ -3772,7 +3688,7 @@
       <c r="FA24" s="57"/>
       <c r="FB24" s="57"/>
       <c r="FC24" s="58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="FD24" s="58"/>
       <c r="FE24" s="58"/>
@@ -3784,7 +3700,7 @@
     <row r="25" spans="1:702" ht="3.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A26" s="59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
@@ -3803,7 +3719,7 @@
       <c r="P26" s="60"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S26" s="46"/>
       <c r="T26" s="46"/>
@@ -3881,7 +3797,7 @@
       <c r="CN26" s="46"/>
       <c r="CO26" s="47"/>
       <c r="CP26" s="45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="CQ26" s="46"/>
       <c r="CR26" s="46"/>
@@ -3895,7 +3811,7 @@
       <c r="CZ26" s="46"/>
       <c r="DA26" s="47"/>
       <c r="DB26" s="45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="DC26" s="46"/>
       <c r="DD26" s="46"/>
@@ -3909,7 +3825,7 @@
       <c r="DL26" s="46"/>
       <c r="DM26" s="47"/>
       <c r="DN26" s="59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="DO26" s="60"/>
       <c r="DP26" s="60"/>
@@ -3961,7 +3877,7 @@
     </row>
     <row r="27" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -3971,7 +3887,7 @@
       <c r="G27" s="46"/>
       <c r="H27" s="47"/>
       <c r="I27" s="45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
@@ -3982,107 +3898,107 @@
       <c r="P27" s="46"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="53"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="19"/>
-      <c r="BE27" s="19"/>
-      <c r="BF27" s="19"/>
-      <c r="BG27" s="19"/>
-      <c r="BH27" s="19"/>
-      <c r="BI27" s="19"/>
-      <c r="BJ27" s="19"/>
-      <c r="BK27" s="19"/>
-      <c r="BL27" s="19"/>
-      <c r="BM27" s="19"/>
-      <c r="BN27" s="19"/>
-      <c r="BO27" s="19"/>
-      <c r="BP27" s="19"/>
-      <c r="BQ27" s="19"/>
-      <c r="BR27" s="19"/>
-      <c r="BS27" s="19"/>
-      <c r="BT27" s="19"/>
-      <c r="BU27" s="19"/>
-      <c r="BV27" s="19"/>
-      <c r="BW27" s="19"/>
-      <c r="BX27" s="19"/>
-      <c r="BY27" s="19"/>
-      <c r="BZ27" s="19"/>
-      <c r="CA27" s="19"/>
-      <c r="CB27" s="19"/>
-      <c r="CC27" s="19"/>
-      <c r="CD27" s="19"/>
-      <c r="CE27" s="19"/>
-      <c r="CF27" s="19"/>
-      <c r="CG27" s="19"/>
-      <c r="CH27" s="19"/>
-      <c r="CI27" s="19"/>
-      <c r="CJ27" s="19"/>
-      <c r="CK27" s="19"/>
-      <c r="CL27" s="19"/>
-      <c r="CM27" s="19"/>
-      <c r="CN27" s="19"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="32"/>
+      <c r="BF27" s="32"/>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="32"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="32"/>
+      <c r="BO27" s="32"/>
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="32"/>
+      <c r="BS27" s="32"/>
+      <c r="BT27" s="32"/>
+      <c r="BU27" s="32"/>
+      <c r="BV27" s="32"/>
+      <c r="BW27" s="32"/>
+      <c r="BX27" s="32"/>
+      <c r="BY27" s="32"/>
+      <c r="BZ27" s="32"/>
+      <c r="CA27" s="32"/>
+      <c r="CB27" s="32"/>
+      <c r="CC27" s="32"/>
+      <c r="CD27" s="32"/>
+      <c r="CE27" s="32"/>
+      <c r="CF27" s="32"/>
+      <c r="CG27" s="32"/>
+      <c r="CH27" s="32"/>
+      <c r="CI27" s="32"/>
+      <c r="CJ27" s="32"/>
+      <c r="CK27" s="32"/>
+      <c r="CL27" s="32"/>
+      <c r="CM27" s="32"/>
+      <c r="CN27" s="32"/>
       <c r="CO27" s="54"/>
       <c r="CP27" s="53"/>
-      <c r="CQ27" s="19"/>
-      <c r="CR27" s="19"/>
-      <c r="CS27" s="19"/>
-      <c r="CT27" s="19"/>
-      <c r="CU27" s="19"/>
-      <c r="CV27" s="19"/>
-      <c r="CW27" s="19"/>
-      <c r="CX27" s="19"/>
-      <c r="CY27" s="19"/>
-      <c r="CZ27" s="19"/>
+      <c r="CQ27" s="32"/>
+      <c r="CR27" s="32"/>
+      <c r="CS27" s="32"/>
+      <c r="CT27" s="32"/>
+      <c r="CU27" s="32"/>
+      <c r="CV27" s="32"/>
+      <c r="CW27" s="32"/>
+      <c r="CX27" s="32"/>
+      <c r="CY27" s="32"/>
+      <c r="CZ27" s="32"/>
       <c r="DA27" s="54"/>
       <c r="DB27" s="53"/>
-      <c r="DC27" s="19"/>
-      <c r="DD27" s="19"/>
-      <c r="DE27" s="19"/>
-      <c r="DF27" s="19"/>
-      <c r="DG27" s="19"/>
-      <c r="DH27" s="19"/>
-      <c r="DI27" s="19"/>
-      <c r="DJ27" s="19"/>
-      <c r="DK27" s="19"/>
-      <c r="DL27" s="19"/>
+      <c r="DC27" s="32"/>
+      <c r="DD27" s="32"/>
+      <c r="DE27" s="32"/>
+      <c r="DF27" s="32"/>
+      <c r="DG27" s="32"/>
+      <c r="DH27" s="32"/>
+      <c r="DI27" s="32"/>
+      <c r="DJ27" s="32"/>
+      <c r="DK27" s="32"/>
+      <c r="DL27" s="32"/>
       <c r="DM27" s="54"/>
       <c r="DN27" s="45" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="DO27" s="46"/>
       <c r="DP27" s="46"/>
@@ -4100,7 +4016,7 @@
       <c r="EB27" s="46"/>
       <c r="EC27" s="47"/>
       <c r="ED27" s="45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="EE27" s="46"/>
       <c r="EF27" s="46"/>
@@ -4118,7 +4034,7 @@
       <c r="ER27" s="46"/>
       <c r="ES27" s="47"/>
       <c r="ET27" s="45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="EU27" s="46"/>
       <c r="EV27" s="46"/>
@@ -4138,169 +4054,169 @@
     </row>
     <row r="28" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="49"/>
       <c r="I28" s="48"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
       <c r="Q28" s="49"/>
       <c r="R28" s="48"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="25"/>
-      <c r="AY28" s="25"/>
-      <c r="AZ28" s="25"/>
-      <c r="BA28" s="25"/>
-      <c r="BB28" s="25"/>
-      <c r="BC28" s="25"/>
-      <c r="BD28" s="25"/>
-      <c r="BE28" s="25"/>
-      <c r="BF28" s="25"/>
-      <c r="BG28" s="25"/>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="25"/>
-      <c r="BJ28" s="25"/>
-      <c r="BK28" s="25"/>
-      <c r="BL28" s="25"/>
-      <c r="BM28" s="25"/>
-      <c r="BN28" s="25"/>
-      <c r="BO28" s="25"/>
-      <c r="BP28" s="25"/>
-      <c r="BQ28" s="25"/>
-      <c r="BR28" s="25"/>
-      <c r="BS28" s="25"/>
-      <c r="BT28" s="25"/>
-      <c r="BU28" s="25"/>
-      <c r="BV28" s="25"/>
-      <c r="BW28" s="25"/>
-      <c r="BX28" s="25"/>
-      <c r="BY28" s="25"/>
-      <c r="BZ28" s="25"/>
-      <c r="CA28" s="25"/>
-      <c r="CB28" s="25"/>
-      <c r="CC28" s="25"/>
-      <c r="CD28" s="25"/>
-      <c r="CE28" s="25"/>
-      <c r="CF28" s="25"/>
-      <c r="CG28" s="25"/>
-      <c r="CH28" s="25"/>
-      <c r="CI28" s="25"/>
-      <c r="CJ28" s="25"/>
-      <c r="CK28" s="25"/>
-      <c r="CL28" s="25"/>
-      <c r="CM28" s="25"/>
-      <c r="CN28" s="25"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="38"/>
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="38"/>
+      <c r="CB28" s="38"/>
+      <c r="CC28" s="38"/>
+      <c r="CD28" s="38"/>
+      <c r="CE28" s="38"/>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="38"/>
+      <c r="CH28" s="38"/>
+      <c r="CI28" s="38"/>
+      <c r="CJ28" s="38"/>
+      <c r="CK28" s="38"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="38"/>
+      <c r="CN28" s="38"/>
       <c r="CO28" s="49"/>
       <c r="CP28" s="48"/>
-      <c r="CQ28" s="25"/>
-      <c r="CR28" s="25"/>
-      <c r="CS28" s="25"/>
-      <c r="CT28" s="25"/>
-      <c r="CU28" s="25"/>
-      <c r="CV28" s="25"/>
-      <c r="CW28" s="25"/>
-      <c r="CX28" s="25"/>
-      <c r="CY28" s="25"/>
-      <c r="CZ28" s="25"/>
+      <c r="CQ28" s="38"/>
+      <c r="CR28" s="38"/>
+      <c r="CS28" s="38"/>
+      <c r="CT28" s="38"/>
+      <c r="CU28" s="38"/>
+      <c r="CV28" s="38"/>
+      <c r="CW28" s="38"/>
+      <c r="CX28" s="38"/>
+      <c r="CY28" s="38"/>
+      <c r="CZ28" s="38"/>
       <c r="DA28" s="49"/>
       <c r="DB28" s="48"/>
-      <c r="DC28" s="25"/>
-      <c r="DD28" s="25"/>
-      <c r="DE28" s="25"/>
-      <c r="DF28" s="25"/>
-      <c r="DG28" s="25"/>
-      <c r="DH28" s="25"/>
-      <c r="DI28" s="25"/>
-      <c r="DJ28" s="25"/>
-      <c r="DK28" s="25"/>
-      <c r="DL28" s="25"/>
+      <c r="DC28" s="38"/>
+      <c r="DD28" s="38"/>
+      <c r="DE28" s="38"/>
+      <c r="DF28" s="38"/>
+      <c r="DG28" s="38"/>
+      <c r="DH28" s="38"/>
+      <c r="DI28" s="38"/>
+      <c r="DJ28" s="38"/>
+      <c r="DK28" s="38"/>
+      <c r="DL28" s="38"/>
       <c r="DM28" s="49"/>
       <c r="DN28" s="48"/>
-      <c r="DO28" s="25"/>
-      <c r="DP28" s="25"/>
-      <c r="DQ28" s="25"/>
-      <c r="DR28" s="25"/>
-      <c r="DS28" s="25"/>
-      <c r="DT28" s="25"/>
-      <c r="DU28" s="25"/>
-      <c r="DV28" s="25"/>
-      <c r="DW28" s="25"/>
-      <c r="DX28" s="25"/>
-      <c r="DY28" s="25"/>
-      <c r="DZ28" s="25"/>
-      <c r="EA28" s="25"/>
-      <c r="EB28" s="25"/>
+      <c r="DO28" s="38"/>
+      <c r="DP28" s="38"/>
+      <c r="DQ28" s="38"/>
+      <c r="DR28" s="38"/>
+      <c r="DS28" s="38"/>
+      <c r="DT28" s="38"/>
+      <c r="DU28" s="38"/>
+      <c r="DV28" s="38"/>
+      <c r="DW28" s="38"/>
+      <c r="DX28" s="38"/>
+      <c r="DY28" s="38"/>
+      <c r="DZ28" s="38"/>
+      <c r="EA28" s="38"/>
+      <c r="EB28" s="38"/>
       <c r="EC28" s="49"/>
       <c r="ED28" s="48"/>
-      <c r="EE28" s="25"/>
-      <c r="EF28" s="25"/>
-      <c r="EG28" s="25"/>
-      <c r="EH28" s="25"/>
-      <c r="EI28" s="25"/>
-      <c r="EJ28" s="25"/>
-      <c r="EK28" s="25"/>
-      <c r="EL28" s="25"/>
-      <c r="EM28" s="25"/>
-      <c r="EN28" s="25"/>
-      <c r="EO28" s="25"/>
-      <c r="EP28" s="25"/>
-      <c r="EQ28" s="25"/>
-      <c r="ER28" s="25"/>
+      <c r="EE28" s="38"/>
+      <c r="EF28" s="38"/>
+      <c r="EG28" s="38"/>
+      <c r="EH28" s="38"/>
+      <c r="EI28" s="38"/>
+      <c r="EJ28" s="38"/>
+      <c r="EK28" s="38"/>
+      <c r="EL28" s="38"/>
+      <c r="EM28" s="38"/>
+      <c r="EN28" s="38"/>
+      <c r="EO28" s="38"/>
+      <c r="EP28" s="38"/>
+      <c r="EQ28" s="38"/>
+      <c r="ER28" s="38"/>
       <c r="ES28" s="49"/>
       <c r="ET28" s="48"/>
-      <c r="EU28" s="25"/>
-      <c r="EV28" s="25"/>
-      <c r="EW28" s="25"/>
-      <c r="EX28" s="25"/>
-      <c r="EY28" s="25"/>
-      <c r="EZ28" s="25"/>
-      <c r="FA28" s="25"/>
-      <c r="FB28" s="25"/>
-      <c r="FC28" s="25"/>
-      <c r="FD28" s="25"/>
-      <c r="FE28" s="25"/>
-      <c r="FF28" s="25"/>
-      <c r="FG28" s="25"/>
-      <c r="FH28" s="25"/>
+      <c r="EU28" s="38"/>
+      <c r="EV28" s="38"/>
+      <c r="EW28" s="38"/>
+      <c r="EX28" s="38"/>
+      <c r="EY28" s="38"/>
+      <c r="EZ28" s="38"/>
+      <c r="FA28" s="38"/>
+      <c r="FB28" s="38"/>
+      <c r="FC28" s="38"/>
+      <c r="FD28" s="38"/>
+      <c r="FE28" s="38"/>
+      <c r="FF28" s="38"/>
+      <c r="FG28" s="38"/>
+      <c r="FH28" s="38"/>
       <c r="FI28" s="49"/>
     </row>
     <row r="29" spans="1:702" x14ac:dyDescent="0.2">
@@ -4488,7 +4404,7 @@
     </row>
     <row r="30" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -4655,12 +4571,12 @@
       <c r="FH30" s="43"/>
       <c r="FI30" s="44"/>
       <c r="ZJ30" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -4670,7 +4586,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
       <c r="I31" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -4681,7 +4597,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -4771,7 +4687,7 @@
       <c r="CZ31" s="7"/>
       <c r="DA31" s="8"/>
       <c r="DB31" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="DC31" s="7"/>
       <c r="DD31" s="7"/>
@@ -4785,7 +4701,7 @@
       <c r="DL31" s="7"/>
       <c r="DM31" s="8"/>
       <c r="DN31" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="DO31" s="4"/>
       <c r="DP31" s="4"/>
@@ -4803,7 +4719,7 @@
       <c r="EB31" s="4"/>
       <c r="EC31" s="5"/>
       <c r="ED31" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="EE31" s="4"/>
       <c r="EF31" s="4"/>
@@ -4821,7 +4737,7 @@
       <c r="ER31" s="4"/>
       <c r="ES31" s="5"/>
       <c r="ET31" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="EU31" s="4"/>
       <c r="EV31" s="4"/>
@@ -4842,16 +4758,16 @@
         <v>1</v>
       </c>
       <c r="ZH31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="ZI31" s="1"/>
       <c r="ZZ31" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -4861,7 +4777,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
       <c r="I32" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -4872,7 +4788,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
@@ -4962,7 +4878,7 @@
       <c r="CZ32" s="7"/>
       <c r="DA32" s="8"/>
       <c r="DB32" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="DC32" s="7"/>
       <c r="DD32" s="7"/>
@@ -4976,7 +4892,7 @@
       <c r="DL32" s="7"/>
       <c r="DM32" s="8"/>
       <c r="DN32" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="DO32" s="4"/>
       <c r="DP32" s="4"/>
@@ -4994,7 +4910,7 @@
       <c r="EB32" s="4"/>
       <c r="EC32" s="5"/>
       <c r="ED32" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="EE32" s="4"/>
       <c r="EF32" s="4"/>
@@ -5012,7 +4928,7 @@
       <c r="ER32" s="4"/>
       <c r="ES32" s="5"/>
       <c r="ET32" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="EU32" s="4"/>
       <c r="EV32" s="4"/>
@@ -5033,17 +4949,15 @@
         <v>2</v>
       </c>
       <c r="ZH32" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="ZI32" s="1"/>
       <c r="ZZ32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
-        <v>31</v>
-      </c>
+      <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -5052,535 +4966,522 @@
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="17"/>
       <c r="R33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
-      <c r="BK33" s="10"/>
-      <c r="BL33" s="10"/>
-      <c r="BM33" s="10"/>
-      <c r="BN33" s="10"/>
-      <c r="BO33" s="10"/>
-      <c r="BP33" s="10"/>
-      <c r="BQ33" s="10"/>
-      <c r="BR33" s="10"/>
-      <c r="BS33" s="10"/>
-      <c r="BT33" s="10"/>
-      <c r="BU33" s="10"/>
-      <c r="BV33" s="10"/>
-      <c r="BW33" s="10"/>
-      <c r="BX33" s="10"/>
-      <c r="BY33" s="10"/>
-      <c r="BZ33" s="10"/>
-      <c r="CA33" s="10"/>
-      <c r="CB33" s="10"/>
-      <c r="CC33" s="10"/>
-      <c r="CD33" s="10"/>
-      <c r="CE33" s="10"/>
-      <c r="CF33" s="10"/>
-      <c r="CG33" s="10"/>
-      <c r="CH33" s="10"/>
-      <c r="CI33" s="10"/>
-      <c r="CJ33" s="10"/>
-      <c r="CK33" s="10"/>
-      <c r="CL33" s="10"/>
-      <c r="CM33" s="10"/>
-      <c r="CN33" s="10"/>
-      <c r="CO33" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="40"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="40"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="40"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="40"/>
+      <c r="BB33" s="40"/>
+      <c r="BC33" s="40"/>
+      <c r="BD33" s="40"/>
+      <c r="BE33" s="40"/>
+      <c r="BF33" s="40"/>
+      <c r="BG33" s="40"/>
+      <c r="BH33" s="40"/>
+      <c r="BI33" s="40"/>
+      <c r="BJ33" s="40"/>
+      <c r="BK33" s="40"/>
+      <c r="BL33" s="40"/>
+      <c r="BM33" s="40"/>
+      <c r="BN33" s="40"/>
+      <c r="BO33" s="40"/>
+      <c r="BP33" s="40"/>
+      <c r="BQ33" s="40"/>
+      <c r="BR33" s="40"/>
+      <c r="BS33" s="40"/>
+      <c r="BT33" s="40"/>
+      <c r="BU33" s="40"/>
+      <c r="BV33" s="40"/>
+      <c r="BW33" s="40"/>
+      <c r="BX33" s="40"/>
+      <c r="BY33" s="40"/>
+      <c r="BZ33" s="40"/>
+      <c r="CA33" s="40"/>
+      <c r="CB33" s="40"/>
+      <c r="CC33" s="40"/>
+      <c r="CD33" s="40"/>
+      <c r="CE33" s="40"/>
+      <c r="CF33" s="40"/>
+      <c r="CG33" s="40"/>
+      <c r="CH33" s="40"/>
+      <c r="CI33" s="40"/>
+      <c r="CJ33" s="40"/>
+      <c r="CK33" s="40"/>
+      <c r="CL33" s="40"/>
+      <c r="CM33" s="40"/>
+      <c r="CN33" s="40"/>
+      <c r="CO33" s="41"/>
       <c r="CP33" s="6"/>
-      <c r="CQ33" s="7"/>
-      <c r="CR33" s="7"/>
-      <c r="CS33" s="7"/>
-      <c r="CT33" s="7"/>
-      <c r="CU33" s="7"/>
-      <c r="CV33" s="7"/>
-      <c r="CW33" s="7"/>
-      <c r="CX33" s="7"/>
-      <c r="CY33" s="7"/>
-      <c r="CZ33" s="7"/>
-      <c r="DA33" s="8"/>
-      <c r="DB33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="DC33" s="7"/>
-      <c r="DD33" s="7"/>
-      <c r="DE33" s="7"/>
-      <c r="DF33" s="7"/>
-      <c r="DG33" s="7"/>
-      <c r="DH33" s="7"/>
-      <c r="DI33" s="7"/>
-      <c r="DJ33" s="7"/>
-      <c r="DK33" s="7"/>
-      <c r="DL33" s="7"/>
-      <c r="DM33" s="8"/>
+      <c r="CQ33" s="26"/>
+      <c r="CR33" s="26"/>
+      <c r="CS33" s="26"/>
+      <c r="CT33" s="26"/>
+      <c r="CU33" s="26"/>
+      <c r="CV33" s="26"/>
+      <c r="CW33" s="26"/>
+      <c r="CX33" s="26"/>
+      <c r="CY33" s="26"/>
+      <c r="CZ33" s="26"/>
+      <c r="DA33" s="27"/>
+      <c r="DB33" s="6"/>
+      <c r="DC33" s="26"/>
+      <c r="DD33" s="26"/>
+      <c r="DE33" s="26"/>
+      <c r="DF33" s="26"/>
+      <c r="DG33" s="26"/>
+      <c r="DH33" s="26"/>
+      <c r="DI33" s="26"/>
+      <c r="DJ33" s="26"/>
+      <c r="DK33" s="26"/>
+      <c r="DL33" s="26"/>
+      <c r="DM33" s="27"/>
       <c r="DN33" s="3">
         <v>1</v>
       </c>
-      <c r="DO33" s="4"/>
-      <c r="DP33" s="4"/>
-      <c r="DQ33" s="4"/>
-      <c r="DR33" s="4"/>
-      <c r="DS33" s="4"/>
-      <c r="DT33" s="4"/>
-      <c r="DU33" s="4"/>
-      <c r="DV33" s="4"/>
-      <c r="DW33" s="4"/>
-      <c r="DX33" s="4"/>
-      <c r="DY33" s="4"/>
-      <c r="DZ33" s="4"/>
-      <c r="EA33" s="4"/>
-      <c r="EB33" s="4"/>
-      <c r="EC33" s="5"/>
-      <c r="ED33" s="3">
-        <v>4570</v>
-      </c>
-      <c r="EE33" s="4"/>
-      <c r="EF33" s="4"/>
-      <c r="EG33" s="4"/>
-      <c r="EH33" s="4"/>
-      <c r="EI33" s="4"/>
-      <c r="EJ33" s="4"/>
-      <c r="EK33" s="4"/>
-      <c r="EL33" s="4"/>
-      <c r="EM33" s="4"/>
-      <c r="EN33" s="4"/>
-      <c r="EO33" s="4"/>
-      <c r="EP33" s="4"/>
-      <c r="EQ33" s="4"/>
-      <c r="ER33" s="4"/>
-      <c r="ES33" s="5"/>
-      <c r="ET33" s="3">
-        <f>4570</f>
-        <v>4570</v>
-      </c>
-      <c r="EU33" s="4"/>
-      <c r="EV33" s="4"/>
-      <c r="EW33" s="4"/>
-      <c r="EX33" s="4"/>
-      <c r="EY33" s="4"/>
-      <c r="EZ33" s="4"/>
-      <c r="FA33" s="4"/>
-      <c r="FB33" s="4"/>
-      <c r="FC33" s="4"/>
-      <c r="FD33" s="4"/>
-      <c r="FE33" s="4"/>
-      <c r="FF33" s="4"/>
-      <c r="FG33" s="4"/>
-      <c r="FH33" s="4"/>
-      <c r="FI33" s="5"/>
+      <c r="DO33" s="26"/>
+      <c r="DP33" s="26"/>
+      <c r="DQ33" s="26"/>
+      <c r="DR33" s="26"/>
+      <c r="DS33" s="26"/>
+      <c r="DT33" s="26"/>
+      <c r="DU33" s="26"/>
+      <c r="DV33" s="26"/>
+      <c r="DW33" s="26"/>
+      <c r="DX33" s="26"/>
+      <c r="DY33" s="26"/>
+      <c r="DZ33" s="26"/>
+      <c r="EA33" s="26"/>
+      <c r="EB33" s="26"/>
+      <c r="EC33" s="27"/>
+      <c r="ED33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="EE33" s="26"/>
+      <c r="EF33" s="26"/>
+      <c r="EG33" s="26"/>
+      <c r="EH33" s="26"/>
+      <c r="EI33" s="26"/>
+      <c r="EJ33" s="26"/>
+      <c r="EK33" s="26"/>
+      <c r="EL33" s="26"/>
+      <c r="EM33" s="26"/>
+      <c r="EN33" s="26"/>
+      <c r="EO33" s="26"/>
+      <c r="EP33" s="26"/>
+      <c r="EQ33" s="26"/>
+      <c r="ER33" s="26"/>
+      <c r="ES33" s="27"/>
+      <c r="ET33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="EU33" s="26"/>
+      <c r="EV33" s="26"/>
+      <c r="EW33" s="26"/>
+      <c r="EX33" s="26"/>
+      <c r="EY33" s="26"/>
+      <c r="EZ33" s="26"/>
+      <c r="FA33" s="26"/>
+      <c r="FB33" s="26"/>
+      <c r="FC33" s="26"/>
+      <c r="FD33" s="26"/>
+      <c r="FE33" s="26"/>
+      <c r="FF33" s="26"/>
+      <c r="FG33" s="26"/>
+      <c r="FH33" s="26"/>
+      <c r="FI33" s="27"/>
       <c r="ZG33" s="1"/>
       <c r="ZH33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="ZI33" s="1"/>
-      <c r="ZZ33" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="ZZ33" s="1"/>
     </row>
     <row r="34" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
-        <v>32</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="40"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="40"/>
-      <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="40"/>
-      <c r="AT34" s="40"/>
-      <c r="AU34" s="40"/>
-      <c r="AV34" s="40"/>
-      <c r="AW34" s="40"/>
-      <c r="AX34" s="40"/>
-      <c r="AY34" s="40"/>
-      <c r="AZ34" s="40"/>
-      <c r="BA34" s="40"/>
-      <c r="BB34" s="40"/>
-      <c r="BC34" s="40"/>
-      <c r="BD34" s="40"/>
-      <c r="BE34" s="40"/>
-      <c r="BF34" s="40"/>
-      <c r="BG34" s="40"/>
-      <c r="BH34" s="40"/>
-      <c r="BI34" s="40"/>
-      <c r="BJ34" s="40"/>
-      <c r="BK34" s="40"/>
-      <c r="BL34" s="40"/>
-      <c r="BM34" s="40"/>
-      <c r="BN34" s="40"/>
-      <c r="BO34" s="40"/>
-      <c r="BP34" s="40"/>
-      <c r="BQ34" s="40"/>
-      <c r="BR34" s="40"/>
-      <c r="BS34" s="40"/>
-      <c r="BT34" s="40"/>
-      <c r="BU34" s="40"/>
-      <c r="BV34" s="40"/>
-      <c r="BW34" s="40"/>
-      <c r="BX34" s="40"/>
-      <c r="BY34" s="40"/>
-      <c r="BZ34" s="40"/>
-      <c r="CA34" s="40"/>
-      <c r="CB34" s="40"/>
-      <c r="CC34" s="40"/>
-      <c r="CD34" s="40"/>
-      <c r="CE34" s="40"/>
-      <c r="CF34" s="40"/>
-      <c r="CG34" s="40"/>
-      <c r="CH34" s="40"/>
-      <c r="CI34" s="40"/>
-      <c r="CJ34" s="40"/>
-      <c r="CK34" s="40"/>
-      <c r="CL34" s="40"/>
-      <c r="CM34" s="40"/>
-      <c r="CN34" s="40"/>
-      <c r="CO34" s="41"/>
-      <c r="CP34" s="6"/>
-      <c r="CQ34" s="34"/>
-      <c r="CR34" s="34"/>
-      <c r="CS34" s="34"/>
-      <c r="CT34" s="34"/>
-      <c r="CU34" s="34"/>
-      <c r="CV34" s="34"/>
-      <c r="CW34" s="34"/>
-      <c r="CX34" s="34"/>
-      <c r="CY34" s="34"/>
-      <c r="CZ34" s="34"/>
-      <c r="DA34" s="35"/>
-      <c r="DB34" s="6"/>
-      <c r="DC34" s="34"/>
-      <c r="DD34" s="34"/>
-      <c r="DE34" s="34"/>
-      <c r="DF34" s="34"/>
-      <c r="DG34" s="34"/>
-      <c r="DH34" s="34"/>
-      <c r="DI34" s="34"/>
-      <c r="DJ34" s="34"/>
-      <c r="DK34" s="34"/>
-      <c r="DL34" s="34"/>
-      <c r="DM34" s="35"/>
-      <c r="DN34" s="3">
-        <v>1</v>
-      </c>
-      <c r="DO34" s="34"/>
-      <c r="DP34" s="34"/>
-      <c r="DQ34" s="34"/>
-      <c r="DR34" s="34"/>
-      <c r="DS34" s="34"/>
-      <c r="DT34" s="34"/>
-      <c r="DU34" s="34"/>
-      <c r="DV34" s="34"/>
-      <c r="DW34" s="34"/>
-      <c r="DX34" s="34"/>
-      <c r="DY34" s="34"/>
-      <c r="DZ34" s="34"/>
-      <c r="EA34" s="34"/>
-      <c r="EB34" s="34"/>
-      <c r="EC34" s="35"/>
-      <c r="ED34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="EE34" s="34"/>
-      <c r="EF34" s="34"/>
-      <c r="EG34" s="34"/>
-      <c r="EH34" s="34"/>
-      <c r="EI34" s="34"/>
-      <c r="EJ34" s="34"/>
-      <c r="EK34" s="34"/>
-      <c r="EL34" s="34"/>
-      <c r="EM34" s="34"/>
-      <c r="EN34" s="34"/>
-      <c r="EO34" s="34"/>
-      <c r="EP34" s="34"/>
-      <c r="EQ34" s="34"/>
-      <c r="ER34" s="34"/>
-      <c r="ES34" s="35"/>
-      <c r="ET34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="EU34" s="34"/>
-      <c r="EV34" s="34"/>
-      <c r="EW34" s="34"/>
-      <c r="EX34" s="34"/>
-      <c r="EY34" s="34"/>
-      <c r="EZ34" s="34"/>
-      <c r="FA34" s="34"/>
-      <c r="FB34" s="34"/>
-      <c r="FC34" s="34"/>
-      <c r="FD34" s="34"/>
-      <c r="FE34" s="34"/>
-      <c r="FF34" s="34"/>
-      <c r="FG34" s="34"/>
-      <c r="FH34" s="34"/>
-      <c r="FI34" s="35"/>
-      <c r="ZG34" s="1"/>
-      <c r="ZH34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="ZI34" s="1"/>
-      <c r="ZZ34" s="1"/>
+      <c r="A34" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="29"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="29"/>
+      <c r="BB34" s="29"/>
+      <c r="BC34" s="29"/>
+      <c r="BD34" s="29"/>
+      <c r="BE34" s="29"/>
+      <c r="BF34" s="29"/>
+      <c r="BG34" s="29"/>
+      <c r="BH34" s="29"/>
+      <c r="BI34" s="29"/>
+      <c r="BJ34" s="29"/>
+      <c r="BK34" s="29"/>
+      <c r="BL34" s="29"/>
+      <c r="BM34" s="29"/>
+      <c r="BN34" s="29"/>
+      <c r="BO34" s="29"/>
+      <c r="BP34" s="29"/>
+      <c r="BQ34" s="29"/>
+      <c r="BR34" s="29"/>
+      <c r="BS34" s="29"/>
+      <c r="BT34" s="29"/>
+      <c r="BU34" s="29"/>
+      <c r="BV34" s="29"/>
+      <c r="BW34" s="29"/>
+      <c r="BX34" s="29"/>
+      <c r="BY34" s="29"/>
+      <c r="BZ34" s="29"/>
+      <c r="CA34" s="29"/>
+      <c r="CB34" s="29"/>
+      <c r="CC34" s="29"/>
+      <c r="CD34" s="29"/>
+      <c r="CE34" s="29"/>
+      <c r="CF34" s="29"/>
+      <c r="CG34" s="29"/>
+      <c r="CH34" s="29"/>
+      <c r="CI34" s="29"/>
+      <c r="CJ34" s="29"/>
+      <c r="CK34" s="29"/>
+      <c r="CL34" s="29"/>
+      <c r="CM34" s="29"/>
+      <c r="CN34" s="29"/>
+      <c r="CO34" s="29"/>
+      <c r="CP34" s="29"/>
+      <c r="CQ34" s="29"/>
+      <c r="CR34" s="29"/>
+      <c r="CS34" s="29"/>
+      <c r="CT34" s="29"/>
+      <c r="CU34" s="29"/>
+      <c r="CV34" s="29"/>
+      <c r="CW34" s="29"/>
+      <c r="CX34" s="29"/>
+      <c r="CY34" s="29"/>
+      <c r="CZ34" s="29"/>
+      <c r="DA34" s="29"/>
+      <c r="DB34" s="29"/>
+      <c r="DC34" s="29"/>
+      <c r="DD34" s="29"/>
+      <c r="DE34" s="29"/>
+      <c r="DF34" s="29"/>
+      <c r="DG34" s="29"/>
+      <c r="DH34" s="29"/>
+      <c r="DI34" s="29"/>
+      <c r="DJ34" s="29"/>
+      <c r="DK34" s="29"/>
+      <c r="DL34" s="29"/>
+      <c r="DM34" s="29"/>
+      <c r="DN34" s="29"/>
+      <c r="DO34" s="29"/>
+      <c r="DP34" s="29"/>
+      <c r="DQ34" s="29"/>
+      <c r="DR34" s="29"/>
+      <c r="DS34" s="29"/>
+      <c r="DT34" s="29"/>
+      <c r="DU34" s="29"/>
+      <c r="DV34" s="29"/>
+      <c r="DW34" s="29"/>
+      <c r="DX34" s="29"/>
+      <c r="DY34" s="29"/>
+      <c r="DZ34" s="29"/>
+      <c r="EA34" s="29"/>
+      <c r="EB34" s="29"/>
+      <c r="EC34" s="29"/>
+      <c r="ED34" s="29"/>
+      <c r="EE34" s="29"/>
+      <c r="EF34" s="29"/>
+      <c r="EG34" s="29"/>
+      <c r="EH34" s="29"/>
+      <c r="EI34" s="29"/>
+      <c r="EJ34" s="29"/>
+      <c r="EK34" s="29"/>
+      <c r="EL34" s="29"/>
+      <c r="EM34" s="29"/>
+      <c r="EN34" s="29"/>
+      <c r="EO34" s="29"/>
+      <c r="EP34" s="29"/>
+      <c r="EQ34" s="29"/>
+      <c r="ER34" s="29"/>
+      <c r="ES34" s="30"/>
+      <c r="ET34" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="EU34" s="29"/>
+      <c r="EV34" s="29"/>
+      <c r="EW34" s="29"/>
+      <c r="EX34" s="29"/>
+      <c r="EY34" s="29"/>
+      <c r="EZ34" s="29"/>
+      <c r="FA34" s="29"/>
+      <c r="FB34" s="29"/>
+      <c r="FC34" s="29"/>
+      <c r="FD34" s="29"/>
+      <c r="FE34" s="29"/>
+      <c r="FF34" s="29"/>
+      <c r="FG34" s="29"/>
+      <c r="FH34" s="29"/>
+      <c r="FI34" s="30"/>
     </row>
     <row r="35" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="37"/>
-      <c r="AT35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AV35" s="37"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="37"/>
-      <c r="BF35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BH35" s="37"/>
-      <c r="BI35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BK35" s="37"/>
-      <c r="BL35" s="37"/>
-      <c r="BM35" s="37"/>
-      <c r="BN35" s="37"/>
-      <c r="BO35" s="37"/>
-      <c r="BP35" s="37"/>
-      <c r="BQ35" s="37"/>
-      <c r="BR35" s="37"/>
-      <c r="BS35" s="37"/>
-      <c r="BT35" s="37"/>
-      <c r="BU35" s="37"/>
-      <c r="BV35" s="37"/>
-      <c r="BW35" s="37"/>
-      <c r="BX35" s="37"/>
-      <c r="BY35" s="37"/>
-      <c r="BZ35" s="37"/>
-      <c r="CA35" s="37"/>
-      <c r="CB35" s="37"/>
-      <c r="CC35" s="37"/>
-      <c r="CD35" s="37"/>
-      <c r="CE35" s="37"/>
-      <c r="CF35" s="37"/>
-      <c r="CG35" s="37"/>
-      <c r="CH35" s="37"/>
-      <c r="CI35" s="37"/>
-      <c r="CJ35" s="37"/>
-      <c r="CK35" s="37"/>
-      <c r="CL35" s="37"/>
-      <c r="CM35" s="37"/>
-      <c r="CN35" s="37"/>
-      <c r="CO35" s="37"/>
-      <c r="CP35" s="37"/>
-      <c r="CQ35" s="37"/>
-      <c r="CR35" s="37"/>
-      <c r="CS35" s="37"/>
-      <c r="CT35" s="37"/>
-      <c r="CU35" s="37"/>
-      <c r="CV35" s="37"/>
-      <c r="CW35" s="37"/>
-      <c r="CX35" s="37"/>
-      <c r="CY35" s="37"/>
-      <c r="CZ35" s="37"/>
-      <c r="DA35" s="37"/>
-      <c r="DB35" s="37"/>
-      <c r="DC35" s="37"/>
-      <c r="DD35" s="37"/>
-      <c r="DE35" s="37"/>
-      <c r="DF35" s="37"/>
-      <c r="DG35" s="37"/>
-      <c r="DH35" s="37"/>
-      <c r="DI35" s="37"/>
-      <c r="DJ35" s="37"/>
-      <c r="DK35" s="37"/>
-      <c r="DL35" s="37"/>
-      <c r="DM35" s="37"/>
-      <c r="DN35" s="37"/>
-      <c r="DO35" s="37"/>
-      <c r="DP35" s="37"/>
-      <c r="DQ35" s="37"/>
-      <c r="DR35" s="37"/>
-      <c r="DS35" s="37"/>
-      <c r="DT35" s="37"/>
-      <c r="DU35" s="37"/>
-      <c r="DV35" s="37"/>
-      <c r="DW35" s="37"/>
-      <c r="DX35" s="37"/>
-      <c r="DY35" s="37"/>
-      <c r="DZ35" s="37"/>
-      <c r="EA35" s="37"/>
-      <c r="EB35" s="37"/>
-      <c r="EC35" s="37"/>
-      <c r="ED35" s="37"/>
-      <c r="EE35" s="37"/>
-      <c r="EF35" s="37"/>
-      <c r="EG35" s="37"/>
-      <c r="EH35" s="37"/>
-      <c r="EI35" s="37"/>
-      <c r="EJ35" s="37"/>
-      <c r="EK35" s="37"/>
-      <c r="EL35" s="37"/>
-      <c r="EM35" s="37"/>
-      <c r="EN35" s="37"/>
-      <c r="EO35" s="37"/>
-      <c r="EP35" s="37"/>
-      <c r="EQ35" s="37"/>
-      <c r="ER35" s="37"/>
-      <c r="ES35" s="38"/>
-      <c r="ET35" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="EU35" s="37"/>
-      <c r="EV35" s="37"/>
-      <c r="EW35" s="37"/>
-      <c r="EX35" s="37"/>
-      <c r="EY35" s="37"/>
-      <c r="EZ35" s="37"/>
-      <c r="FA35" s="37"/>
-      <c r="FB35" s="37"/>
-      <c r="FC35" s="37"/>
-      <c r="FD35" s="37"/>
-      <c r="FE35" s="37"/>
-      <c r="FF35" s="37"/>
-      <c r="FG35" s="37"/>
-      <c r="FH35" s="37"/>
-      <c r="FI35" s="38"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="2"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="2"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="2"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="2"/>
+      <c r="CM35" s="2"/>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ35" s="19"/>
+      <c r="CR35" s="19"/>
+      <c r="CS35" s="19"/>
+      <c r="CT35" s="19"/>
+      <c r="CU35" s="19"/>
+      <c r="CV35" s="19"/>
+      <c r="CW35" s="19"/>
+      <c r="CX35" s="19"/>
+      <c r="CY35" s="19"/>
+      <c r="CZ35" s="19"/>
+      <c r="DA35" s="19"/>
+      <c r="DB35" s="19"/>
+      <c r="DC35" s="19"/>
+      <c r="DD35" s="19"/>
+      <c r="DE35" s="19"/>
+      <c r="DF35" s="19"/>
+      <c r="DG35" s="19"/>
+      <c r="DH35" s="19"/>
+      <c r="DI35" s="19"/>
+      <c r="DJ35" s="19"/>
+      <c r="DK35" s="19"/>
+      <c r="DL35" s="19"/>
+      <c r="DM35" s="19"/>
+      <c r="DN35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="DO35" s="21"/>
+      <c r="DP35" s="21"/>
+      <c r="DQ35" s="21"/>
+      <c r="DR35" s="21"/>
+      <c r="DS35" s="21"/>
+      <c r="DT35" s="21"/>
+      <c r="DU35" s="21"/>
+      <c r="DV35" s="21"/>
+      <c r="DW35" s="21"/>
+      <c r="DX35" s="21"/>
+      <c r="DY35" s="21"/>
+      <c r="DZ35" s="21"/>
+      <c r="EA35" s="21"/>
+      <c r="EB35" s="21"/>
+      <c r="EC35" s="22"/>
+      <c r="ED35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="EE35" s="21"/>
+      <c r="EF35" s="21"/>
+      <c r="EG35" s="21"/>
+      <c r="EH35" s="21"/>
+      <c r="EI35" s="21"/>
+      <c r="EJ35" s="21"/>
+      <c r="EK35" s="21"/>
+      <c r="EL35" s="21"/>
+      <c r="EM35" s="21"/>
+      <c r="EN35" s="21"/>
+      <c r="EO35" s="21"/>
+      <c r="EP35" s="21"/>
+      <c r="EQ35" s="21"/>
+      <c r="ER35" s="21"/>
+      <c r="ES35" s="22"/>
+      <c r="ET35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="EU35" s="24"/>
+      <c r="EV35" s="24"/>
+      <c r="EW35" s="24"/>
+      <c r="EX35" s="24"/>
+      <c r="EY35" s="24"/>
+      <c r="EZ35" s="24"/>
+      <c r="FA35" s="24"/>
+      <c r="FB35" s="24"/>
+      <c r="FC35" s="24"/>
+      <c r="FD35" s="24"/>
+      <c r="FE35" s="24"/>
+      <c r="FF35" s="24"/>
+      <c r="FG35" s="24"/>
+      <c r="FH35" s="24"/>
+      <c r="FI35" s="25"/>
     </row>
     <row r="36" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -5676,926 +5577,750 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
       <c r="CO36" s="2"/>
-      <c r="CP36" s="27" t="s">
+      <c r="CP36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ36" s="19"/>
+      <c r="CR36" s="19"/>
+      <c r="CS36" s="19"/>
+      <c r="CT36" s="19"/>
+      <c r="CU36" s="19"/>
+      <c r="CV36" s="19"/>
+      <c r="CW36" s="19"/>
+      <c r="CX36" s="19"/>
+      <c r="CY36" s="19"/>
+      <c r="CZ36" s="19"/>
+      <c r="DA36" s="19"/>
+      <c r="DB36" s="19"/>
+      <c r="DC36" s="19"/>
+      <c r="DD36" s="19"/>
+      <c r="DE36" s="19"/>
+      <c r="DF36" s="19"/>
+      <c r="DG36" s="19"/>
+      <c r="DH36" s="19"/>
+      <c r="DI36" s="19"/>
+      <c r="DJ36" s="19"/>
+      <c r="DK36" s="19"/>
+      <c r="DL36" s="19"/>
+      <c r="DM36" s="19"/>
+      <c r="DN36" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="DO36" s="24"/>
+      <c r="DP36" s="24"/>
+      <c r="DQ36" s="24"/>
+      <c r="DR36" s="24"/>
+      <c r="DS36" s="24"/>
+      <c r="DT36" s="24"/>
+      <c r="DU36" s="24"/>
+      <c r="DV36" s="24"/>
+      <c r="DW36" s="24"/>
+      <c r="DX36" s="24"/>
+      <c r="DY36" s="24"/>
+      <c r="DZ36" s="24"/>
+      <c r="EA36" s="24"/>
+      <c r="EB36" s="24"/>
+      <c r="EC36" s="25"/>
+      <c r="ED36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="EE36" s="21"/>
+      <c r="EF36" s="21"/>
+      <c r="EG36" s="21"/>
+      <c r="EH36" s="21"/>
+      <c r="EI36" s="21"/>
+      <c r="EJ36" s="21"/>
+      <c r="EK36" s="21"/>
+      <c r="EL36" s="21"/>
+      <c r="EM36" s="21"/>
+      <c r="EN36" s="21"/>
+      <c r="EO36" s="21"/>
+      <c r="EP36" s="21"/>
+      <c r="EQ36" s="21"/>
+      <c r="ER36" s="21"/>
+      <c r="ES36" s="22"/>
+      <c r="ET36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="EU36" s="24"/>
+      <c r="EV36" s="24"/>
+      <c r="EW36" s="24"/>
+      <c r="EX36" s="24"/>
+      <c r="EY36" s="24"/>
+      <c r="EZ36" s="24"/>
+      <c r="FA36" s="24"/>
+      <c r="FB36" s="24"/>
+      <c r="FC36" s="24"/>
+      <c r="FD36" s="24"/>
+      <c r="FE36" s="24"/>
+      <c r="FF36" s="24"/>
+      <c r="FG36" s="24"/>
+      <c r="FH36" s="24"/>
+      <c r="FI36" s="25"/>
+    </row>
+    <row r="37" spans="1:702" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:702" x14ac:dyDescent="0.2">
+      <c r="I38" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BC38" s="39"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="39"/>
+      <c r="BF38" s="39"/>
+      <c r="BG38" s="39"/>
+      <c r="BH38" s="39"/>
+      <c r="BI38" s="39"/>
+      <c r="BJ38" s="39"/>
+      <c r="BK38" s="39"/>
+      <c r="BL38" s="39"/>
+      <c r="BM38" s="39"/>
+      <c r="BN38" s="39"/>
+      <c r="BO38" s="39"/>
+      <c r="BP38" s="39"/>
+      <c r="BQ38" s="39"/>
+      <c r="BR38" s="39"/>
+      <c r="BS38" s="39"/>
+      <c r="BT38" s="39"/>
+      <c r="BU38" s="39"/>
+      <c r="BV38" s="39"/>
+      <c r="BW38" s="39"/>
+      <c r="BX38" s="39"/>
+      <c r="BY38" s="39"/>
+      <c r="BZ38" s="39"/>
+      <c r="CA38" s="39"/>
+      <c r="CB38" s="39"/>
+      <c r="CC38" s="39"/>
+      <c r="CD38" s="39"/>
+      <c r="CE38" s="39"/>
+      <c r="CF38" s="39"/>
+      <c r="CG38" s="39"/>
+      <c r="CH38" s="39"/>
+      <c r="CI38" s="39"/>
+      <c r="CK38" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="CL38" s="38"/>
+      <c r="CM38" s="38"/>
+      <c r="CN38" s="38"/>
+      <c r="CO38" s="38"/>
+      <c r="CP38" s="38"/>
+      <c r="CQ38" s="38"/>
+      <c r="CR38" s="38"/>
+      <c r="CS38" s="38"/>
+      <c r="CT38" s="38"/>
+      <c r="CU38" s="38"/>
+      <c r="CV38" s="38"/>
+      <c r="CW38" s="38"/>
+      <c r="CX38" s="38"/>
+      <c r="CY38" s="38"/>
+      <c r="CZ38" s="38"/>
+      <c r="DA38" s="38"/>
+      <c r="DB38" s="38"/>
+      <c r="DC38" s="38"/>
+      <c r="DD38" s="38"/>
+      <c r="DE38" s="38"/>
+      <c r="DF38" s="38"/>
+      <c r="DG38" s="38"/>
+      <c r="DH38" s="38"/>
+      <c r="DI38" s="38"/>
+      <c r="DJ38" s="38"/>
+      <c r="DK38" s="38"/>
+      <c r="DL38" s="38"/>
+      <c r="DM38" s="38"/>
+      <c r="DN38" s="38"/>
+      <c r="DO38" s="38"/>
+      <c r="DP38" s="38"/>
+      <c r="DQ38" s="38"/>
+      <c r="DR38" s="38"/>
+      <c r="DS38" s="38"/>
+      <c r="DT38" s="38"/>
+      <c r="DU38" s="38"/>
+      <c r="DV38" s="38"/>
+      <c r="DW38" s="38"/>
+      <c r="DX38" s="38"/>
+      <c r="DY38" s="38"/>
+      <c r="DZ38" s="38"/>
+      <c r="EA38" s="38"/>
+      <c r="EB38" s="38"/>
+      <c r="EC38" s="38"/>
+      <c r="ED38" s="38"/>
+      <c r="EE38" s="38"/>
+      <c r="EF38" s="38"/>
+      <c r="EG38" s="38"/>
+      <c r="EH38" s="38"/>
+      <c r="EI38" s="38"/>
+      <c r="EJ38" s="38"/>
+      <c r="EK38" s="38"/>
+      <c r="EL38" s="38"/>
+      <c r="EM38" s="38"/>
+      <c r="EN38" s="38"/>
+      <c r="EO38" s="38"/>
+      <c r="EP38" s="38"/>
+      <c r="EQ38" s="38"/>
+      <c r="ER38" s="38"/>
+      <c r="ES38" s="38"/>
+      <c r="ET38" s="38"/>
+      <c r="EU38" s="38"/>
+      <c r="EV38" s="38"/>
+      <c r="EW38" s="38"/>
+      <c r="EX38" s="38"/>
+      <c r="EY38" s="38"/>
+      <c r="EZ38" s="38"/>
+      <c r="FA38" s="38"/>
+      <c r="FB38" s="38"/>
+      <c r="FC38" s="38"/>
+      <c r="FD38" s="38"/>
+      <c r="FE38" s="38"/>
+      <c r="FF38" s="38"/>
+      <c r="FG38" s="38"/>
+      <c r="FH38" s="38"/>
+      <c r="FI38" s="38"/>
+    </row>
+    <row r="39" spans="1:702" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="CQ36" s="27"/>
-      <c r="CR36" s="27"/>
-      <c r="CS36" s="27"/>
-      <c r="CT36" s="27"/>
-      <c r="CU36" s="27"/>
-      <c r="CV36" s="27"/>
-      <c r="CW36" s="27"/>
-      <c r="CX36" s="27"/>
-      <c r="CY36" s="27"/>
-      <c r="CZ36" s="27"/>
-      <c r="DA36" s="27"/>
-      <c r="DB36" s="27"/>
-      <c r="DC36" s="27"/>
-      <c r="DD36" s="27"/>
-      <c r="DE36" s="27"/>
-      <c r="DF36" s="27"/>
-      <c r="DG36" s="27"/>
-      <c r="DH36" s="27"/>
-      <c r="DI36" s="27"/>
-      <c r="DJ36" s="27"/>
-      <c r="DK36" s="27"/>
-      <c r="DL36" s="27"/>
-      <c r="DM36" s="27"/>
-      <c r="DN36" s="28" t="s">
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="18"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="18"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="18"/>
+      <c r="BA39" s="18"/>
+      <c r="BC39" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="DO36" s="29"/>
-      <c r="DP36" s="29"/>
-      <c r="DQ36" s="29"/>
-      <c r="DR36" s="29"/>
-      <c r="DS36" s="29"/>
-      <c r="DT36" s="29"/>
-      <c r="DU36" s="29"/>
-      <c r="DV36" s="29"/>
-      <c r="DW36" s="29"/>
-      <c r="DX36" s="29"/>
-      <c r="DY36" s="29"/>
-      <c r="DZ36" s="29"/>
-      <c r="EA36" s="29"/>
-      <c r="EB36" s="29"/>
-      <c r="EC36" s="30"/>
-      <c r="ED36" s="28" t="s">
+      <c r="BD39" s="18"/>
+      <c r="BE39" s="18"/>
+      <c r="BF39" s="18"/>
+      <c r="BG39" s="18"/>
+      <c r="BH39" s="18"/>
+      <c r="BI39" s="18"/>
+      <c r="BJ39" s="18"/>
+      <c r="BK39" s="18"/>
+      <c r="BL39" s="18"/>
+      <c r="BM39" s="18"/>
+      <c r="BN39" s="18"/>
+      <c r="BO39" s="18"/>
+      <c r="BP39" s="18"/>
+      <c r="BQ39" s="18"/>
+      <c r="BR39" s="18"/>
+      <c r="BS39" s="18"/>
+      <c r="BT39" s="18"/>
+      <c r="BU39" s="18"/>
+      <c r="BV39" s="18"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="18"/>
+      <c r="BY39" s="18"/>
+      <c r="BZ39" s="18"/>
+      <c r="CA39" s="18"/>
+      <c r="CB39" s="18"/>
+      <c r="CC39" s="18"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="18"/>
+      <c r="CF39" s="18"/>
+      <c r="CG39" s="18"/>
+      <c r="CH39" s="18"/>
+      <c r="CI39" s="18"/>
+      <c r="CK39" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CL39" s="18"/>
+      <c r="CM39" s="18"/>
+      <c r="CN39" s="18"/>
+      <c r="CO39" s="18"/>
+      <c r="CP39" s="18"/>
+      <c r="CQ39" s="18"/>
+      <c r="CR39" s="18"/>
+      <c r="CS39" s="18"/>
+      <c r="CT39" s="18"/>
+      <c r="CU39" s="18"/>
+      <c r="CV39" s="18"/>
+      <c r="CW39" s="18"/>
+      <c r="CX39" s="18"/>
+      <c r="CY39" s="18"/>
+      <c r="CZ39" s="18"/>
+      <c r="DA39" s="18"/>
+      <c r="DB39" s="18"/>
+      <c r="DC39" s="18"/>
+      <c r="DD39" s="18"/>
+      <c r="DE39" s="18"/>
+      <c r="DF39" s="18"/>
+      <c r="DG39" s="18"/>
+      <c r="DH39" s="18"/>
+      <c r="DI39" s="18"/>
+      <c r="DJ39" s="18"/>
+      <c r="DK39" s="18"/>
+      <c r="DL39" s="18"/>
+      <c r="DM39" s="18"/>
+      <c r="DN39" s="18"/>
+      <c r="DO39" s="18"/>
+      <c r="DP39" s="18"/>
+      <c r="DQ39" s="18"/>
+      <c r="DR39" s="18"/>
+      <c r="DS39" s="18"/>
+      <c r="DT39" s="18"/>
+      <c r="DU39" s="18"/>
+      <c r="DV39" s="18"/>
+      <c r="DW39" s="18"/>
+      <c r="DX39" s="18"/>
+      <c r="DY39" s="18"/>
+      <c r="DZ39" s="18"/>
+      <c r="EA39" s="18"/>
+      <c r="EB39" s="18"/>
+      <c r="EC39" s="18"/>
+      <c r="ED39" s="18"/>
+      <c r="EE39" s="18"/>
+      <c r="EF39" s="18"/>
+      <c r="EG39" s="18"/>
+      <c r="EH39" s="18"/>
+      <c r="EI39" s="18"/>
+      <c r="EJ39" s="18"/>
+      <c r="EK39" s="18"/>
+      <c r="EL39" s="18"/>
+      <c r="EM39" s="18"/>
+      <c r="EN39" s="18"/>
+      <c r="EO39" s="18"/>
+      <c r="EP39" s="18"/>
+      <c r="EQ39" s="18"/>
+      <c r="ER39" s="18"/>
+      <c r="ES39" s="18"/>
+      <c r="ET39" s="18"/>
+      <c r="EU39" s="18"/>
+      <c r="EV39" s="18"/>
+      <c r="EW39" s="18"/>
+      <c r="EX39" s="18"/>
+      <c r="EY39" s="18"/>
+      <c r="EZ39" s="18"/>
+      <c r="FA39" s="18"/>
+      <c r="FB39" s="18"/>
+      <c r="FC39" s="18"/>
+      <c r="FD39" s="18"/>
+      <c r="FE39" s="18"/>
+      <c r="FF39" s="18"/>
+      <c r="FG39" s="18"/>
+      <c r="FH39" s="18"/>
+      <c r="FI39" s="18"/>
+    </row>
+    <row r="40" spans="1:702" x14ac:dyDescent="0.2">
+      <c r="U40" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+    </row>
+    <row r="41" spans="1:702" ht="6.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:702" x14ac:dyDescent="0.2">
+      <c r="I42" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="35"/>
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="35"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="35"/>
+      <c r="AR42" s="35"/>
+      <c r="AS42" s="35"/>
+      <c r="AT42" s="35"/>
+      <c r="AU42" s="35"/>
+      <c r="AV42" s="35"/>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="35"/>
+      <c r="AY42" s="35"/>
+      <c r="AZ42" s="35"/>
+      <c r="BA42" s="35"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="36"/>
+      <c r="BD42" s="36"/>
+      <c r="BE42" s="36"/>
+      <c r="BF42" s="36"/>
+      <c r="BG42" s="36"/>
+      <c r="BH42" s="36"/>
+      <c r="BI42" s="36"/>
+      <c r="BJ42" s="36"/>
+      <c r="BK42" s="36"/>
+      <c r="BL42" s="36"/>
+      <c r="BM42" s="36"/>
+      <c r="BN42" s="36"/>
+      <c r="BO42" s="36"/>
+      <c r="BP42" s="36"/>
+      <c r="BQ42" s="36"/>
+      <c r="BR42" s="36"/>
+      <c r="BS42" s="36"/>
+      <c r="BT42" s="36"/>
+      <c r="BU42" s="36"/>
+      <c r="BV42" s="36"/>
+      <c r="BW42" s="36"/>
+      <c r="BX42" s="36"/>
+      <c r="BY42" s="36"/>
+      <c r="BZ42" s="36"/>
+      <c r="CA42" s="36"/>
+      <c r="CB42" s="36"/>
+      <c r="CC42" s="36"/>
+      <c r="CD42" s="36"/>
+      <c r="CE42" s="36"/>
+      <c r="CF42" s="36"/>
+      <c r="CG42" s="36"/>
+      <c r="CH42" s="36"/>
+      <c r="CI42" s="36"/>
+      <c r="CJ42" s="2"/>
+      <c r="CK42" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="CL42" s="35"/>
+      <c r="CM42" s="35"/>
+      <c r="CN42" s="35"/>
+      <c r="CO42" s="35"/>
+      <c r="CP42" s="35"/>
+      <c r="CQ42" s="35"/>
+      <c r="CR42" s="35"/>
+      <c r="CS42" s="35"/>
+      <c r="CT42" s="35"/>
+      <c r="CU42" s="35"/>
+      <c r="CV42" s="35"/>
+      <c r="CW42" s="35"/>
+      <c r="CX42" s="35"/>
+      <c r="CY42" s="35"/>
+      <c r="CZ42" s="35"/>
+      <c r="DA42" s="35"/>
+      <c r="DB42" s="35"/>
+      <c r="DC42" s="35"/>
+      <c r="DD42" s="35"/>
+      <c r="DE42" s="35"/>
+      <c r="DF42" s="35"/>
+      <c r="DG42" s="35"/>
+      <c r="DH42" s="35"/>
+      <c r="DI42" s="35"/>
+      <c r="DJ42" s="35"/>
+      <c r="DK42" s="35"/>
+      <c r="DL42" s="35"/>
+      <c r="DM42" s="35"/>
+      <c r="DN42" s="35"/>
+      <c r="DO42" s="35"/>
+      <c r="DP42" s="35"/>
+      <c r="DQ42" s="35"/>
+      <c r="DR42" s="35"/>
+      <c r="DS42" s="35"/>
+      <c r="DT42" s="35"/>
+      <c r="DU42" s="35"/>
+      <c r="DV42" s="35"/>
+      <c r="DW42" s="35"/>
+      <c r="DX42" s="35"/>
+      <c r="DY42" s="35"/>
+      <c r="DZ42" s="35"/>
+      <c r="EA42" s="35"/>
+      <c r="EB42" s="35"/>
+      <c r="EC42" s="35"/>
+      <c r="ED42" s="35"/>
+      <c r="EE42" s="35"/>
+      <c r="EF42" s="35"/>
+      <c r="EG42" s="35"/>
+      <c r="EH42" s="35"/>
+      <c r="EI42" s="35"/>
+      <c r="EJ42" s="35"/>
+      <c r="EK42" s="35"/>
+      <c r="EL42" s="35"/>
+      <c r="EM42" s="35"/>
+      <c r="EN42" s="35"/>
+      <c r="EO42" s="35"/>
+      <c r="EP42" s="35"/>
+      <c r="EQ42" s="35"/>
+      <c r="ER42" s="35"/>
+      <c r="ES42" s="35"/>
+      <c r="ET42" s="35"/>
+      <c r="EU42" s="35"/>
+      <c r="EV42" s="35"/>
+      <c r="EW42" s="35"/>
+      <c r="EX42" s="35"/>
+      <c r="EY42" s="35"/>
+      <c r="EZ42" s="35"/>
+      <c r="FA42" s="35"/>
+      <c r="FB42" s="35"/>
+      <c r="FC42" s="35"/>
+      <c r="FD42" s="35"/>
+      <c r="FE42" s="35"/>
+      <c r="FF42" s="35"/>
+      <c r="FG42" s="35"/>
+      <c r="FH42" s="35"/>
+      <c r="FI42" s="35"/>
+    </row>
+    <row r="43" spans="1:702" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="18"/>
+      <c r="AS43" s="18"/>
+      <c r="AT43" s="18"/>
+      <c r="AU43" s="18"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="18"/>
+      <c r="AZ43" s="18"/>
+      <c r="BA43" s="18"/>
+      <c r="BC43" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="EE36" s="29"/>
-      <c r="EF36" s="29"/>
-      <c r="EG36" s="29"/>
-      <c r="EH36" s="29"/>
-      <c r="EI36" s="29"/>
-      <c r="EJ36" s="29"/>
-      <c r="EK36" s="29"/>
-      <c r="EL36" s="29"/>
-      <c r="EM36" s="29"/>
-      <c r="EN36" s="29"/>
-      <c r="EO36" s="29"/>
-      <c r="EP36" s="29"/>
-      <c r="EQ36" s="29"/>
-      <c r="ER36" s="29"/>
-      <c r="ES36" s="30"/>
-      <c r="ET36" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="EU36" s="32"/>
-      <c r="EV36" s="32"/>
-      <c r="EW36" s="32"/>
-      <c r="EX36" s="32"/>
-      <c r="EY36" s="32"/>
-      <c r="EZ36" s="32"/>
-      <c r="FA36" s="32"/>
-      <c r="FB36" s="32"/>
-      <c r="FC36" s="32"/>
-      <c r="FD36" s="32"/>
-      <c r="FE36" s="32"/>
-      <c r="FF36" s="32"/>
-      <c r="FG36" s="32"/>
-      <c r="FH36" s="32"/>
-      <c r="FI36" s="33"/>
+      <c r="BD43" s="18"/>
+      <c r="BE43" s="18"/>
+      <c r="BF43" s="18"/>
+      <c r="BG43" s="18"/>
+      <c r="BH43" s="18"/>
+      <c r="BI43" s="18"/>
+      <c r="BJ43" s="18"/>
+      <c r="BK43" s="18"/>
+      <c r="BL43" s="18"/>
+      <c r="BM43" s="18"/>
+      <c r="BN43" s="18"/>
+      <c r="BO43" s="18"/>
+      <c r="BP43" s="18"/>
+      <c r="BQ43" s="18"/>
+      <c r="BR43" s="18"/>
+      <c r="BS43" s="18"/>
+      <c r="BT43" s="18"/>
+      <c r="BU43" s="18"/>
+      <c r="BV43" s="18"/>
+      <c r="BW43" s="18"/>
+      <c r="BX43" s="18"/>
+      <c r="BY43" s="18"/>
+      <c r="BZ43" s="18"/>
+      <c r="CA43" s="18"/>
+      <c r="CB43" s="18"/>
+      <c r="CC43" s="18"/>
+      <c r="CD43" s="18"/>
+      <c r="CE43" s="18"/>
+      <c r="CF43" s="18"/>
+      <c r="CG43" s="18"/>
+      <c r="CH43" s="18"/>
+      <c r="CI43" s="18"/>
+      <c r="CK43" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CL43" s="18"/>
+      <c r="CM43" s="18"/>
+      <c r="CN43" s="18"/>
+      <c r="CO43" s="18"/>
+      <c r="CP43" s="18"/>
+      <c r="CQ43" s="18"/>
+      <c r="CR43" s="18"/>
+      <c r="CS43" s="18"/>
+      <c r="CT43" s="18"/>
+      <c r="CU43" s="18"/>
+      <c r="CV43" s="18"/>
+      <c r="CW43" s="18"/>
+      <c r="CX43" s="18"/>
+      <c r="CY43" s="18"/>
+      <c r="CZ43" s="18"/>
+      <c r="DA43" s="18"/>
+      <c r="DB43" s="18"/>
+      <c r="DC43" s="18"/>
+      <c r="DD43" s="18"/>
+      <c r="DE43" s="18"/>
+      <c r="DF43" s="18"/>
+      <c r="DG43" s="18"/>
+      <c r="DH43" s="18"/>
+      <c r="DI43" s="18"/>
+      <c r="DJ43" s="18"/>
+      <c r="DK43" s="18"/>
+      <c r="DL43" s="18"/>
+      <c r="DM43" s="18"/>
+      <c r="DN43" s="18"/>
+      <c r="DO43" s="18"/>
+      <c r="DP43" s="18"/>
+      <c r="DQ43" s="18"/>
+      <c r="DR43" s="18"/>
+      <c r="DS43" s="18"/>
+      <c r="DT43" s="18"/>
+      <c r="DU43" s="18"/>
+      <c r="DV43" s="18"/>
+      <c r="DW43" s="18"/>
+      <c r="DX43" s="18"/>
+      <c r="DY43" s="18"/>
+      <c r="DZ43" s="18"/>
+      <c r="EA43" s="18"/>
+      <c r="EB43" s="18"/>
+      <c r="EC43" s="18"/>
+      <c r="ED43" s="18"/>
+      <c r="EE43" s="18"/>
+      <c r="EF43" s="18"/>
+      <c r="EG43" s="18"/>
+      <c r="EH43" s="18"/>
+      <c r="EI43" s="18"/>
+      <c r="EJ43" s="18"/>
+      <c r="EK43" s="18"/>
+      <c r="EL43" s="18"/>
+      <c r="EM43" s="18"/>
+      <c r="EN43" s="18"/>
+      <c r="EO43" s="18"/>
+      <c r="EP43" s="18"/>
+      <c r="EQ43" s="18"/>
+      <c r="ER43" s="18"/>
+      <c r="ES43" s="18"/>
+      <c r="ET43" s="18"/>
+      <c r="EU43" s="18"/>
+      <c r="EV43" s="18"/>
+      <c r="EW43" s="18"/>
+      <c r="EX43" s="18"/>
+      <c r="EY43" s="18"/>
+      <c r="EZ43" s="18"/>
+      <c r="FA43" s="18"/>
+      <c r="FB43" s="18"/>
+      <c r="FC43" s="18"/>
+      <c r="FD43" s="18"/>
+      <c r="FE43" s="18"/>
+      <c r="FF43" s="18"/>
+      <c r="FG43" s="18"/>
+      <c r="FH43" s="18"/>
+      <c r="FI43" s="18"/>
     </row>
-    <row r="37" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="2"/>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2"/>
-      <c r="BJ37" s="2"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37" s="2"/>
-      <c r="BM37" s="2"/>
-      <c r="BN37" s="2"/>
-      <c r="BO37" s="2"/>
-      <c r="BP37" s="2"/>
-      <c r="BQ37" s="2"/>
-      <c r="BR37" s="2"/>
-      <c r="BS37" s="2"/>
-      <c r="BT37" s="2"/>
-      <c r="BU37" s="2"/>
-      <c r="BV37" s="2"/>
-      <c r="BW37" s="2"/>
-      <c r="BX37" s="2"/>
-      <c r="BY37" s="2"/>
-      <c r="BZ37" s="2"/>
-      <c r="CA37" s="2"/>
-      <c r="CB37" s="2"/>
-      <c r="CC37" s="2"/>
-      <c r="CD37" s="2"/>
-      <c r="CE37" s="2"/>
-      <c r="CF37" s="2"/>
-      <c r="CG37" s="2"/>
-      <c r="CH37" s="2"/>
-      <c r="CI37" s="2"/>
-      <c r="CJ37" s="2"/>
-      <c r="CK37" s="2"/>
-      <c r="CL37" s="2"/>
-      <c r="CM37" s="2"/>
-      <c r="CN37" s="2"/>
-      <c r="CO37" s="2"/>
-      <c r="CP37" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="CQ37" s="27"/>
-      <c r="CR37" s="27"/>
-      <c r="CS37" s="27"/>
-      <c r="CT37" s="27"/>
-      <c r="CU37" s="27"/>
-      <c r="CV37" s="27"/>
-      <c r="CW37" s="27"/>
-      <c r="CX37" s="27"/>
-      <c r="CY37" s="27"/>
-      <c r="CZ37" s="27"/>
-      <c r="DA37" s="27"/>
-      <c r="DB37" s="27"/>
-      <c r="DC37" s="27"/>
-      <c r="DD37" s="27"/>
-      <c r="DE37" s="27"/>
-      <c r="DF37" s="27"/>
-      <c r="DG37" s="27"/>
-      <c r="DH37" s="27"/>
-      <c r="DI37" s="27"/>
-      <c r="DJ37" s="27"/>
-      <c r="DK37" s="27"/>
-      <c r="DL37" s="27"/>
-      <c r="DM37" s="27"/>
-      <c r="DN37" s="31">
-        <f>SUM(DN31:EC36)</f>
-        <v>2</v>
-      </c>
-      <c r="DO37" s="32"/>
-      <c r="DP37" s="32"/>
-      <c r="DQ37" s="32"/>
-      <c r="DR37" s="32"/>
-      <c r="DS37" s="32"/>
-      <c r="DT37" s="32"/>
-      <c r="DU37" s="32"/>
-      <c r="DV37" s="32"/>
-      <c r="DW37" s="32"/>
-      <c r="DX37" s="32"/>
-      <c r="DY37" s="32"/>
-      <c r="DZ37" s="32"/>
-      <c r="EA37" s="32"/>
-      <c r="EB37" s="32"/>
-      <c r="EC37" s="33"/>
-      <c r="ED37" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="EE37" s="29"/>
-      <c r="EF37" s="29"/>
-      <c r="EG37" s="29"/>
-      <c r="EH37" s="29"/>
-      <c r="EI37" s="29"/>
-      <c r="EJ37" s="29"/>
-      <c r="EK37" s="29"/>
-      <c r="EL37" s="29"/>
-      <c r="EM37" s="29"/>
-      <c r="EN37" s="29"/>
-      <c r="EO37" s="29"/>
-      <c r="EP37" s="29"/>
-      <c r="EQ37" s="29"/>
-      <c r="ER37" s="29"/>
-      <c r="ES37" s="30"/>
-      <c r="ET37" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="EU37" s="32"/>
-      <c r="EV37" s="32"/>
-      <c r="EW37" s="32"/>
-      <c r="EX37" s="32"/>
-      <c r="EY37" s="32"/>
-      <c r="EZ37" s="32"/>
-      <c r="FA37" s="32"/>
-      <c r="FB37" s="32"/>
-      <c r="FC37" s="32"/>
-      <c r="FD37" s="32"/>
-      <c r="FE37" s="32"/>
-      <c r="FF37" s="32"/>
-      <c r="FG37" s="32"/>
-      <c r="FH37" s="32"/>
-      <c r="FI37" s="33"/>
-    </row>
-    <row r="38" spans="1:702" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="I39" s="20" t="s">
+    <row r="44" spans="1:702" x14ac:dyDescent="0.2">
+      <c r="U44" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="25"/>
-      <c r="AP39" s="25"/>
-      <c r="AQ39" s="25"/>
-      <c r="AR39" s="25"/>
-      <c r="AS39" s="25"/>
-      <c r="AT39" s="25"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="25"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="25"/>
-      <c r="AZ39" s="25"/>
-      <c r="BA39" s="25"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="26"/>
-      <c r="BE39" s="26"/>
-      <c r="BF39" s="26"/>
-      <c r="BG39" s="26"/>
-      <c r="BH39" s="26"/>
-      <c r="BI39" s="26"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="26"/>
-      <c r="BL39" s="26"/>
-      <c r="BM39" s="26"/>
-      <c r="BN39" s="26"/>
-      <c r="BO39" s="26"/>
-      <c r="BP39" s="26"/>
-      <c r="BQ39" s="26"/>
-      <c r="BR39" s="26"/>
-      <c r="BS39" s="26"/>
-      <c r="BT39" s="26"/>
-      <c r="BU39" s="26"/>
-      <c r="BV39" s="26"/>
-      <c r="BW39" s="26"/>
-      <c r="BX39" s="26"/>
-      <c r="BY39" s="26"/>
-      <c r="BZ39" s="26"/>
-      <c r="CA39" s="26"/>
-      <c r="CB39" s="26"/>
-      <c r="CC39" s="26"/>
-      <c r="CD39" s="26"/>
-      <c r="CE39" s="26"/>
-      <c r="CF39" s="26"/>
-      <c r="CG39" s="26"/>
-      <c r="CH39" s="26"/>
-      <c r="CI39" s="26"/>
-      <c r="CK39" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="CL39" s="25"/>
-      <c r="CM39" s="25"/>
-      <c r="CN39" s="25"/>
-      <c r="CO39" s="25"/>
-      <c r="CP39" s="25"/>
-      <c r="CQ39" s="25"/>
-      <c r="CR39" s="25"/>
-      <c r="CS39" s="25"/>
-      <c r="CT39" s="25"/>
-      <c r="CU39" s="25"/>
-      <c r="CV39" s="25"/>
-      <c r="CW39" s="25"/>
-      <c r="CX39" s="25"/>
-      <c r="CY39" s="25"/>
-      <c r="CZ39" s="25"/>
-      <c r="DA39" s="25"/>
-      <c r="DB39" s="25"/>
-      <c r="DC39" s="25"/>
-      <c r="DD39" s="25"/>
-      <c r="DE39" s="25"/>
-      <c r="DF39" s="25"/>
-      <c r="DG39" s="25"/>
-      <c r="DH39" s="25"/>
-      <c r="DI39" s="25"/>
-      <c r="DJ39" s="25"/>
-      <c r="DK39" s="25"/>
-      <c r="DL39" s="25"/>
-      <c r="DM39" s="25"/>
-      <c r="DN39" s="25"/>
-      <c r="DO39" s="25"/>
-      <c r="DP39" s="25"/>
-      <c r="DQ39" s="25"/>
-      <c r="DR39" s="25"/>
-      <c r="DS39" s="25"/>
-      <c r="DT39" s="25"/>
-      <c r="DU39" s="25"/>
-      <c r="DV39" s="25"/>
-      <c r="DW39" s="25"/>
-      <c r="DX39" s="25"/>
-      <c r="DY39" s="25"/>
-      <c r="DZ39" s="25"/>
-      <c r="EA39" s="25"/>
-      <c r="EB39" s="25"/>
-      <c r="EC39" s="25"/>
-      <c r="ED39" s="25"/>
-      <c r="EE39" s="25"/>
-      <c r="EF39" s="25"/>
-      <c r="EG39" s="25"/>
-      <c r="EH39" s="25"/>
-      <c r="EI39" s="25"/>
-      <c r="EJ39" s="25"/>
-      <c r="EK39" s="25"/>
-      <c r="EL39" s="25"/>
-      <c r="EM39" s="25"/>
-      <c r="EN39" s="25"/>
-      <c r="EO39" s="25"/>
-      <c r="EP39" s="25"/>
-      <c r="EQ39" s="25"/>
-      <c r="ER39" s="25"/>
-      <c r="ES39" s="25"/>
-      <c r="ET39" s="25"/>
-      <c r="EU39" s="25"/>
-      <c r="EV39" s="25"/>
-      <c r="EW39" s="25"/>
-      <c r="EX39" s="25"/>
-      <c r="EY39" s="25"/>
-      <c r="EZ39" s="25"/>
-      <c r="FA39" s="25"/>
-      <c r="FB39" s="25"/>
-      <c r="FC39" s="25"/>
-      <c r="FD39" s="25"/>
-      <c r="FE39" s="25"/>
-      <c r="FF39" s="25"/>
-      <c r="FG39" s="25"/>
-      <c r="FH39" s="25"/>
-      <c r="FI39" s="25"/>
-    </row>
-    <row r="40" spans="1:702" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q40" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-      <c r="AO40" s="18"/>
-      <c r="AP40" s="18"/>
-      <c r="AQ40" s="18"/>
-      <c r="AR40" s="18"/>
-      <c r="AS40" s="18"/>
-      <c r="AT40" s="18"/>
-      <c r="AU40" s="18"/>
-      <c r="AV40" s="18"/>
-      <c r="AW40" s="18"/>
-      <c r="AX40" s="18"/>
-      <c r="AY40" s="18"/>
-      <c r="AZ40" s="18"/>
-      <c r="BA40" s="18"/>
-      <c r="BC40" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD40" s="18"/>
-      <c r="BE40" s="18"/>
-      <c r="BF40" s="18"/>
-      <c r="BG40" s="18"/>
-      <c r="BH40" s="18"/>
-      <c r="BI40" s="18"/>
-      <c r="BJ40" s="18"/>
-      <c r="BK40" s="18"/>
-      <c r="BL40" s="18"/>
-      <c r="BM40" s="18"/>
-      <c r="BN40" s="18"/>
-      <c r="BO40" s="18"/>
-      <c r="BP40" s="18"/>
-      <c r="BQ40" s="18"/>
-      <c r="BR40" s="18"/>
-      <c r="BS40" s="18"/>
-      <c r="BT40" s="18"/>
-      <c r="BU40" s="18"/>
-      <c r="BV40" s="18"/>
-      <c r="BW40" s="18"/>
-      <c r="BX40" s="18"/>
-      <c r="BY40" s="18"/>
-      <c r="BZ40" s="18"/>
-      <c r="CA40" s="18"/>
-      <c r="CB40" s="18"/>
-      <c r="CC40" s="18"/>
-      <c r="CD40" s="18"/>
-      <c r="CE40" s="18"/>
-      <c r="CF40" s="18"/>
-      <c r="CG40" s="18"/>
-      <c r="CH40" s="18"/>
-      <c r="CI40" s="18"/>
-      <c r="CK40" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="CL40" s="18"/>
-      <c r="CM40" s="18"/>
-      <c r="CN40" s="18"/>
-      <c r="CO40" s="18"/>
-      <c r="CP40" s="18"/>
-      <c r="CQ40" s="18"/>
-      <c r="CR40" s="18"/>
-      <c r="CS40" s="18"/>
-      <c r="CT40" s="18"/>
-      <c r="CU40" s="18"/>
-      <c r="CV40" s="18"/>
-      <c r="CW40" s="18"/>
-      <c r="CX40" s="18"/>
-      <c r="CY40" s="18"/>
-      <c r="CZ40" s="18"/>
-      <c r="DA40" s="18"/>
-      <c r="DB40" s="18"/>
-      <c r="DC40" s="18"/>
-      <c r="DD40" s="18"/>
-      <c r="DE40" s="18"/>
-      <c r="DF40" s="18"/>
-      <c r="DG40" s="18"/>
-      <c r="DH40" s="18"/>
-      <c r="DI40" s="18"/>
-      <c r="DJ40" s="18"/>
-      <c r="DK40" s="18"/>
-      <c r="DL40" s="18"/>
-      <c r="DM40" s="18"/>
-      <c r="DN40" s="18"/>
-      <c r="DO40" s="18"/>
-      <c r="DP40" s="18"/>
-      <c r="DQ40" s="18"/>
-      <c r="DR40" s="18"/>
-      <c r="DS40" s="18"/>
-      <c r="DT40" s="18"/>
-      <c r="DU40" s="18"/>
-      <c r="DV40" s="18"/>
-      <c r="DW40" s="18"/>
-      <c r="DX40" s="18"/>
-      <c r="DY40" s="18"/>
-      <c r="DZ40" s="18"/>
-      <c r="EA40" s="18"/>
-      <c r="EB40" s="18"/>
-      <c r="EC40" s="18"/>
-      <c r="ED40" s="18"/>
-      <c r="EE40" s="18"/>
-      <c r="EF40" s="18"/>
-      <c r="EG40" s="18"/>
-      <c r="EH40" s="18"/>
-      <c r="EI40" s="18"/>
-      <c r="EJ40" s="18"/>
-      <c r="EK40" s="18"/>
-      <c r="EL40" s="18"/>
-      <c r="EM40" s="18"/>
-      <c r="EN40" s="18"/>
-      <c r="EO40" s="18"/>
-      <c r="EP40" s="18"/>
-      <c r="EQ40" s="18"/>
-      <c r="ER40" s="18"/>
-      <c r="ES40" s="18"/>
-      <c r="ET40" s="18"/>
-      <c r="EU40" s="18"/>
-      <c r="EV40" s="18"/>
-      <c r="EW40" s="18"/>
-      <c r="EX40" s="18"/>
-      <c r="EY40" s="18"/>
-      <c r="EZ40" s="18"/>
-      <c r="FA40" s="18"/>
-      <c r="FB40" s="18"/>
-      <c r="FC40" s="18"/>
-      <c r="FD40" s="18"/>
-      <c r="FE40" s="18"/>
-      <c r="FF40" s="18"/>
-      <c r="FG40" s="18"/>
-      <c r="FH40" s="18"/>
-      <c r="FI40" s="18"/>
-    </row>
-    <row r="41" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="U41" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-    </row>
-    <row r="42" spans="1:702" ht="6.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="I43" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="22"/>
-      <c r="AM43" s="22"/>
-      <c r="AN43" s="22"/>
-      <c r="AO43" s="22"/>
-      <c r="AP43" s="22"/>
-      <c r="AQ43" s="22"/>
-      <c r="AR43" s="22"/>
-      <c r="AS43" s="22"/>
-      <c r="AT43" s="22"/>
-      <c r="AU43" s="22"/>
-      <c r="AV43" s="22"/>
-      <c r="AW43" s="22"/>
-      <c r="AX43" s="22"/>
-      <c r="AY43" s="22"/>
-      <c r="AZ43" s="22"/>
-      <c r="BA43" s="22"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="23"/>
-      <c r="BD43" s="23"/>
-      <c r="BE43" s="23"/>
-      <c r="BF43" s="23"/>
-      <c r="BG43" s="23"/>
-      <c r="BH43" s="23"/>
-      <c r="BI43" s="23"/>
-      <c r="BJ43" s="23"/>
-      <c r="BK43" s="23"/>
-      <c r="BL43" s="23"/>
-      <c r="BM43" s="23"/>
-      <c r="BN43" s="23"/>
-      <c r="BO43" s="23"/>
-      <c r="BP43" s="23"/>
-      <c r="BQ43" s="23"/>
-      <c r="BR43" s="23"/>
-      <c r="BS43" s="23"/>
-      <c r="BT43" s="23"/>
-      <c r="BU43" s="23"/>
-      <c r="BV43" s="23"/>
-      <c r="BW43" s="23"/>
-      <c r="BX43" s="23"/>
-      <c r="BY43" s="23"/>
-      <c r="BZ43" s="23"/>
-      <c r="CA43" s="23"/>
-      <c r="CB43" s="23"/>
-      <c r="CC43" s="23"/>
-      <c r="CD43" s="23"/>
-      <c r="CE43" s="23"/>
-      <c r="CF43" s="23"/>
-      <c r="CG43" s="23"/>
-      <c r="CH43" s="23"/>
-      <c r="CI43" s="23"/>
-      <c r="CJ43" s="2"/>
-      <c r="CK43" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="CL43" s="22"/>
-      <c r="CM43" s="22"/>
-      <c r="CN43" s="22"/>
-      <c r="CO43" s="22"/>
-      <c r="CP43" s="22"/>
-      <c r="CQ43" s="22"/>
-      <c r="CR43" s="22"/>
-      <c r="CS43" s="22"/>
-      <c r="CT43" s="22"/>
-      <c r="CU43" s="22"/>
-      <c r="CV43" s="22"/>
-      <c r="CW43" s="22"/>
-      <c r="CX43" s="22"/>
-      <c r="CY43" s="22"/>
-      <c r="CZ43" s="22"/>
-      <c r="DA43" s="22"/>
-      <c r="DB43" s="22"/>
-      <c r="DC43" s="22"/>
-      <c r="DD43" s="22"/>
-      <c r="DE43" s="22"/>
-      <c r="DF43" s="22"/>
-      <c r="DG43" s="22"/>
-      <c r="DH43" s="22"/>
-      <c r="DI43" s="22"/>
-      <c r="DJ43" s="22"/>
-      <c r="DK43" s="22"/>
-      <c r="DL43" s="22"/>
-      <c r="DM43" s="22"/>
-      <c r="DN43" s="22"/>
-      <c r="DO43" s="22"/>
-      <c r="DP43" s="22"/>
-      <c r="DQ43" s="22"/>
-      <c r="DR43" s="22"/>
-      <c r="DS43" s="22"/>
-      <c r="DT43" s="22"/>
-      <c r="DU43" s="22"/>
-      <c r="DV43" s="22"/>
-      <c r="DW43" s="22"/>
-      <c r="DX43" s="22"/>
-      <c r="DY43" s="22"/>
-      <c r="DZ43" s="22"/>
-      <c r="EA43" s="22"/>
-      <c r="EB43" s="22"/>
-      <c r="EC43" s="22"/>
-      <c r="ED43" s="22"/>
-      <c r="EE43" s="22"/>
-      <c r="EF43" s="22"/>
-      <c r="EG43" s="22"/>
-      <c r="EH43" s="22"/>
-      <c r="EI43" s="22"/>
-      <c r="EJ43" s="22"/>
-      <c r="EK43" s="22"/>
-      <c r="EL43" s="22"/>
-      <c r="EM43" s="22"/>
-      <c r="EN43" s="22"/>
-      <c r="EO43" s="22"/>
-      <c r="EP43" s="22"/>
-      <c r="EQ43" s="22"/>
-      <c r="ER43" s="22"/>
-      <c r="ES43" s="22"/>
-      <c r="ET43" s="22"/>
-      <c r="EU43" s="22"/>
-      <c r="EV43" s="22"/>
-      <c r="EW43" s="22"/>
-      <c r="EX43" s="22"/>
-      <c r="EY43" s="22"/>
-      <c r="EZ43" s="22"/>
-      <c r="FA43" s="22"/>
-      <c r="FB43" s="22"/>
-      <c r="FC43" s="22"/>
-      <c r="FD43" s="22"/>
-      <c r="FE43" s="22"/>
-      <c r="FF43" s="22"/>
-      <c r="FG43" s="22"/>
-      <c r="FH43" s="22"/>
-      <c r="FI43" s="22"/>
-    </row>
-    <row r="44" spans="1:702" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q44" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
-      <c r="AJ44" s="18"/>
-      <c r="AK44" s="18"/>
-      <c r="AL44" s="18"/>
-      <c r="AM44" s="18"/>
-      <c r="AN44" s="18"/>
-      <c r="AO44" s="18"/>
-      <c r="AP44" s="18"/>
-      <c r="AQ44" s="18"/>
-      <c r="AR44" s="18"/>
-      <c r="AS44" s="18"/>
-      <c r="AT44" s="18"/>
-      <c r="AU44" s="18"/>
-      <c r="AV44" s="18"/>
-      <c r="AW44" s="18"/>
-      <c r="AX44" s="18"/>
-      <c r="AY44" s="18"/>
-      <c r="AZ44" s="18"/>
-      <c r="BA44" s="18"/>
-      <c r="BC44" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD44" s="18"/>
-      <c r="BE44" s="18"/>
-      <c r="BF44" s="18"/>
-      <c r="BG44" s="18"/>
-      <c r="BH44" s="18"/>
-      <c r="BI44" s="18"/>
-      <c r="BJ44" s="18"/>
-      <c r="BK44" s="18"/>
-      <c r="BL44" s="18"/>
-      <c r="BM44" s="18"/>
-      <c r="BN44" s="18"/>
-      <c r="BO44" s="18"/>
-      <c r="BP44" s="18"/>
-      <c r="BQ44" s="18"/>
-      <c r="BR44" s="18"/>
-      <c r="BS44" s="18"/>
-      <c r="BT44" s="18"/>
-      <c r="BU44" s="18"/>
-      <c r="BV44" s="18"/>
-      <c r="BW44" s="18"/>
-      <c r="BX44" s="18"/>
-      <c r="BY44" s="18"/>
-      <c r="BZ44" s="18"/>
-      <c r="CA44" s="18"/>
-      <c r="CB44" s="18"/>
-      <c r="CC44" s="18"/>
-      <c r="CD44" s="18"/>
-      <c r="CE44" s="18"/>
-      <c r="CF44" s="18"/>
-      <c r="CG44" s="18"/>
-      <c r="CH44" s="18"/>
-      <c r="CI44" s="18"/>
-      <c r="CK44" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="CL44" s="18"/>
-      <c r="CM44" s="18"/>
-      <c r="CN44" s="18"/>
-      <c r="CO44" s="18"/>
-      <c r="CP44" s="18"/>
-      <c r="CQ44" s="18"/>
-      <c r="CR44" s="18"/>
-      <c r="CS44" s="18"/>
-      <c r="CT44" s="18"/>
-      <c r="CU44" s="18"/>
-      <c r="CV44" s="18"/>
-      <c r="CW44" s="18"/>
-      <c r="CX44" s="18"/>
-      <c r="CY44" s="18"/>
-      <c r="CZ44" s="18"/>
-      <c r="DA44" s="18"/>
-      <c r="DB44" s="18"/>
-      <c r="DC44" s="18"/>
-      <c r="DD44" s="18"/>
-      <c r="DE44" s="18"/>
-      <c r="DF44" s="18"/>
-      <c r="DG44" s="18"/>
-      <c r="DH44" s="18"/>
-      <c r="DI44" s="18"/>
-      <c r="DJ44" s="18"/>
-      <c r="DK44" s="18"/>
-      <c r="DL44" s="18"/>
-      <c r="DM44" s="18"/>
-      <c r="DN44" s="18"/>
-      <c r="DO44" s="18"/>
-      <c r="DP44" s="18"/>
-      <c r="DQ44" s="18"/>
-      <c r="DR44" s="18"/>
-      <c r="DS44" s="18"/>
-      <c r="DT44" s="18"/>
-      <c r="DU44" s="18"/>
-      <c r="DV44" s="18"/>
-      <c r="DW44" s="18"/>
-      <c r="DX44" s="18"/>
-      <c r="DY44" s="18"/>
-      <c r="DZ44" s="18"/>
-      <c r="EA44" s="18"/>
-      <c r="EB44" s="18"/>
-      <c r="EC44" s="18"/>
-      <c r="ED44" s="18"/>
-      <c r="EE44" s="18"/>
-      <c r="EF44" s="18"/>
-      <c r="EG44" s="18"/>
-      <c r="EH44" s="18"/>
-      <c r="EI44" s="18"/>
-      <c r="EJ44" s="18"/>
-      <c r="EK44" s="18"/>
-      <c r="EL44" s="18"/>
-      <c r="EM44" s="18"/>
-      <c r="EN44" s="18"/>
-      <c r="EO44" s="18"/>
-      <c r="EP44" s="18"/>
-      <c r="EQ44" s="18"/>
-      <c r="ER44" s="18"/>
-      <c r="ES44" s="18"/>
-      <c r="ET44" s="18"/>
-      <c r="EU44" s="18"/>
-      <c r="EV44" s="18"/>
-      <c r="EW44" s="18"/>
-      <c r="EX44" s="18"/>
-      <c r="EY44" s="18"/>
-      <c r="EZ44" s="18"/>
-      <c r="FA44" s="18"/>
-      <c r="FB44" s="18"/>
-      <c r="FC44" s="18"/>
-      <c r="FD44" s="18"/>
-      <c r="FE44" s="18"/>
-      <c r="FF44" s="18"/>
-      <c r="FG44" s="18"/>
-      <c r="FH44" s="18"/>
-      <c r="FI44" s="18"/>
-    </row>
-    <row r="45" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="U45" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="129">
+  <mergeCells count="121">
     <mergeCell ref="A6:EL6"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="Y7:EL7"/>
@@ -6667,9 +6392,11 @@
     <mergeCell ref="R26:CO28"/>
     <mergeCell ref="CP26:DA28"/>
     <mergeCell ref="DB26:DM28"/>
-    <mergeCell ref="DN33:EC33"/>
-    <mergeCell ref="ED33:ES33"/>
-    <mergeCell ref="ET33:FI33"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="R33:CO33"/>
+    <mergeCell ref="CP33:DA33"/>
+    <mergeCell ref="DB33:DM33"/>
     <mergeCell ref="DN32:EC32"/>
     <mergeCell ref="ED32:ES32"/>
     <mergeCell ref="ET32:FI32"/>
@@ -6678,29 +6405,19 @@
     <mergeCell ref="R32:CO32"/>
     <mergeCell ref="CP32:DA32"/>
     <mergeCell ref="DB32:DM32"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="R34:CO34"/>
-    <mergeCell ref="CP34:DA34"/>
-    <mergeCell ref="DB34:DM34"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="R33:CO33"/>
-    <mergeCell ref="CP33:DA33"/>
-    <mergeCell ref="DB33:DM33"/>
-    <mergeCell ref="U45:Z45"/>
-    <mergeCell ref="U41:Z41"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="Q43:BA43"/>
-    <mergeCell ref="BC43:CI43"/>
-    <mergeCell ref="CK43:FI43"/>
-    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="U44:Z44"/>
+    <mergeCell ref="U40:Z40"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="Q42:BA42"/>
+    <mergeCell ref="BC42:CI42"/>
+    <mergeCell ref="CK42:FI42"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="Q38:BA38"/>
+    <mergeCell ref="BC38:CI38"/>
+    <mergeCell ref="CK38:FI38"/>
     <mergeCell ref="Q39:BA39"/>
     <mergeCell ref="BC39:CI39"/>
     <mergeCell ref="CK39:FI39"/>
-    <mergeCell ref="Q40:BA40"/>
-    <mergeCell ref="BC40:CI40"/>
-    <mergeCell ref="CK40:FI40"/>
     <mergeCell ref="ET31:FI31"/>
     <mergeCell ref="ED31:ES31"/>
     <mergeCell ref="DN31:EC31"/>
@@ -6709,26 +6426,25 @@
     <mergeCell ref="R31:CO31"/>
     <mergeCell ref="I31:Q31"/>
     <mergeCell ref="A31:H31"/>
-    <mergeCell ref="Q44:BA44"/>
-    <mergeCell ref="BC44:CI44"/>
-    <mergeCell ref="CK44:FI44"/>
+    <mergeCell ref="Q43:BA43"/>
+    <mergeCell ref="BC43:CI43"/>
+    <mergeCell ref="CK43:FI43"/>
+    <mergeCell ref="CP35:DM35"/>
+    <mergeCell ref="DN35:EC35"/>
+    <mergeCell ref="ED35:ES35"/>
+    <mergeCell ref="ET35:FI35"/>
     <mergeCell ref="CP36:DM36"/>
     <mergeCell ref="DN36:EC36"/>
     <mergeCell ref="ED36:ES36"/>
     <mergeCell ref="ET36:FI36"/>
-    <mergeCell ref="CP37:DM37"/>
-    <mergeCell ref="DN37:EC37"/>
-    <mergeCell ref="ED37:ES37"/>
-    <mergeCell ref="ET37:FI37"/>
-    <mergeCell ref="DN34:EC34"/>
-    <mergeCell ref="ED34:ES34"/>
+    <mergeCell ref="DN33:EC33"/>
+    <mergeCell ref="ED33:ES33"/>
+    <mergeCell ref="ET33:FI33"/>
+    <mergeCell ref="A34:ES34"/>
     <mergeCell ref="ET34:FI34"/>
-    <mergeCell ref="A35:ES35"/>
-    <mergeCell ref="ET35:FI35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>